--- a/user_account_data.xlsx
+++ b/user_account_data.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,6 +453,30 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>qwerty</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>qwerty</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Joshu</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Jose</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/user_account_data.xlsx
+++ b/user_account_data.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,36 +444,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>awd</t>
+          <t>Joshua</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>awd</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>qwerty</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>qwerty</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Joshu</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Jose</t>
+          <t>Barotea</t>
         </is>
       </c>
     </row>

--- a/user_account_data.xlsx
+++ b/user_account_data.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,12 +444,24 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Barotea</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>Joshua</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Barotea</t>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>De Guzman</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Mark Vincent</t>
         </is>
       </c>
     </row>

--- a/user_account_data.xlsx
+++ b/user_account_data.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,6 +465,18 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Christian</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Hardinan</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/user_account_data.xlsx
+++ b/user_account_data.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,6 +477,18 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>v</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>h</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/user_account_data.xlsx
+++ b/user_account_data.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,48 +444,36 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Barotea</t>
+          <t>Bars</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Joshua</t>
+          <t>Bars</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>De Guzman</t>
+          <t>aerg</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mark Vincent</t>
+          <t>awd</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Christian</t>
+          <t>www</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hardinan</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>v</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>h</t>
+          <t>www</t>
         </is>
       </c>
     </row>

--- a/user_account_data.xlsx
+++ b/user_account_data.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,6 +477,30 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>bars</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>bars</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>awd</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>awd</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/user_account_data.xlsx
+++ b/user_account_data.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,6 +501,18 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sss</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>sss</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/user_account_data.xlsx
+++ b/user_account_data.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,15 +427,33 @@
   <cols>
     <col width="10" customWidth="1" min="1" max="1"/>
     <col width="10" customWidth="1" min="2" max="2"/>
+    <col width="10" customWidth="1" min="3" max="3"/>
+    <col width="10" customWidth="1" min="4" max="4"/>
+    <col width="10" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>First Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Last Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Username</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Password</t>
         </is>
@@ -444,19 +462,34 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Bars</t>
+          <t>Joshua</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bars</t>
+          <t>Barotea</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>joshuabarotea26@gmail.com</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Uriyan</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>kuyaako99</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>aerg</t>
+          <t>awd</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -464,50 +497,17 @@
           <t>awd</t>
         </is>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>awd</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>www</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>www</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>bars</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>bars</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>awd</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>awd</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>sss</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>sss</t>
         </is>

--- a/user_account_data.xlsx
+++ b/user_account_data.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -513,6 +513,33 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>aw</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>aw</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>as</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/user_account_data.xlsx
+++ b/user_account_data.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -540,6 +540,87 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>awd</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>awd</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>awd</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>awd</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>awd</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>awd</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>awd</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>sss</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>sss</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>www</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>we</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>awe</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>wef</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>wef</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>ser</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/user_account_data.xlsx
+++ b/user_account_data.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -621,6 +621,33 @@
         </is>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>joshua</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>barotea</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>barotea</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/user_account_data.xlsx
+++ b/user_account_data.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -621,6 +621,60 @@
         </is>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>raw</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>raw</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>arw</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>arw</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>raw</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>inu</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>vser</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>fswef</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>asef</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>top</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/user_account_data.xlsx
+++ b/user_account_data.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,6 +486,33 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>wef</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>wef</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>wef</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>awef</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/user_account_data.xlsx
+++ b/user_account_data.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -513,6 +513,87 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ara</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>wr</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>ara@gmail.com</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>hfg</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>asdfgh</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>arw</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>wer</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>wer@gmail.com</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>awed</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>1111111</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>awr</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>wer</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>a@gmail.com</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>fda</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>ararara</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/user_account_data.xlsx
+++ b/user_account_data.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,135 +462,54 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>awed</t>
+          <t>admin</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>awef</t>
+          <t>admin</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>awef</t>
+          <t>admin@gmail.com</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Uri</t>
+          <t>admins</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>admin123</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>wef</t>
+          <t>admins</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>wef</t>
+          <t>admins</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>wef</t>
+          <t>admins@gmail.com</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>admin</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>awef</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>ara</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>wr</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>ara@gmail.com</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>hfg</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>asdfgh</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>arw</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>wer</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>wer@gmail.com</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>awed</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>1111111</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>awr</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>wer</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>a@gmail.com</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>fda</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>ararara</t>
+          <t>admin12</t>
         </is>
       </c>
     </row>

--- a/user_account_data.xlsx
+++ b/user_account_data.xlsx
@@ -8,6 +8,9 @@
   </bookViews>
   <sheets>
     <sheet name="Userdata" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="1B Enrollment Information " sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="1A Enrollment Information " sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="1C Enrollment Information " sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -417,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,56 +465,622 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>admin</t>
+          <t>awr</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>admin</t>
+          <t>awr</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>admin@gmail.com</t>
+          <t>dsa@gmail.com</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>admins</t>
+          <t>122</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>admin123</t>
+          <t>aqwaqw</t>
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>admins</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>admins</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>admins@gmail.com</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>admin</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>admin12</t>
-        </is>
-      </c>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Z2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Student ID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Course/Section</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>LRN</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Surname</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Firstname</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Middle Initial</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Gender</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Birthdate</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Birthplace</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Nationality</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Religion</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Marital Status</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>Language Spoken</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>Street</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>Barangay</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>City</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>Zip Code</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>Province</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>Country</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>Contact Number</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>awef</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>awef</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>awef</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>awef</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>awef</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Prefer not to answer</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>January 17, 1930</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>aewf</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>awef</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Iglesia ni Cristo</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Single</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>awef</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>awfe</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>awe</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>fwe</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>awe</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>wef</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>fwe</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>wef</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>fwe</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Z2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Student ID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Course/Section</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>LRN</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Surname</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Firstname</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Middle Initial</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Gender</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Birthdate</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Birthplace</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Nationality</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Religion</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Marital Status</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>Language Spoken</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>Street</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>Barangay</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>City</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>Zip Code</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>Province</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>Country</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>Contact Number</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Prefer not to answer</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Select Age</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>MM DD, YYYY</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Select Religion</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Select Marital Status</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Z2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Student ID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Course/Section</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>LRN</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr"/>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Surname</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Firstname</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Middle Initial</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr"/>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Gender</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Birthdate</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Birthplace</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Nationality</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Religion</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Marital Status</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>Language Spoken</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr"/>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>Street</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>Barangay</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>City</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>Zip Code</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>Province</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>Country</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr"/>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>Contact Number</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1C</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Prefer not to answer</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Select Age</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>MM DD, YYYY</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Select Religion</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Select Marital Status</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/user_account_data.xlsx
+++ b/user_account_data.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,33 @@
       <c r="E2" t="inlineStr">
         <is>
           <t>admins</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>admins@gmail.com</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>admin123</t>
         </is>
       </c>
     </row>

--- a/user_account_data.xlsx
+++ b/user_account_data.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="Userdata" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="1A Enrollment Information " sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="1B Enrollment Information " sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -417,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,54 +464,1071 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>admin</t>
+          <t>jok</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>admin</t>
+          <t>jok</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>admin@gmail.com</t>
+          <t>jok@gmail.com</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>admin</t>
+          <t>joke</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>admin123</t>
+          <t>jokjok</t>
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>joe</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>eoj</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>ejo@gmail.com</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>joey</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>123456</t>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AU2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="16" customWidth="1" min="2" max="2"/>
+    <col width="10" customWidth="1" min="3" max="3"/>
+    <col width="9" customWidth="1" min="4" max="4"/>
+    <col width="11" customWidth="1" min="5" max="5"/>
+    <col width="16" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="5" customWidth="1" min="8" max="8"/>
+    <col width="20" customWidth="1" min="9" max="9"/>
+    <col width="12" customWidth="1" min="10" max="10"/>
+    <col width="13" customWidth="1" min="11" max="11"/>
+    <col width="19" customWidth="1" min="12" max="12"/>
+    <col width="16" customWidth="1" min="13" max="13"/>
+    <col width="17" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="10" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="10" customWidth="1" min="18" max="18"/>
+    <col width="10" customWidth="1" min="19" max="19"/>
+    <col width="10" customWidth="1" min="20" max="20"/>
+    <col width="15" customWidth="1" min="21" max="21"/>
+    <col width="16" customWidth="1" min="22" max="22"/>
+    <col width="15" customWidth="1" min="23" max="23"/>
+    <col width="21" customWidth="1" min="24" max="24"/>
+    <col width="21" customWidth="1" min="25" max="25"/>
+    <col width="15" customWidth="1" min="26" max="26"/>
+    <col width="21" customWidth="1" min="27" max="27"/>
+    <col width="21" customWidth="1" min="28" max="28"/>
+    <col width="17" customWidth="1" min="29" max="29"/>
+    <col width="25" customWidth="1" min="30" max="30"/>
+    <col width="20" customWidth="1" min="31" max="31"/>
+    <col width="23" customWidth="1" min="32" max="32"/>
+    <col width="23" customWidth="1" min="33" max="33"/>
+    <col width="19" customWidth="1" min="34" max="34"/>
+    <col width="20" customWidth="1" min="35" max="35"/>
+    <col width="27" customWidth="1" min="36" max="36"/>
+    <col width="20" customWidth="1" min="37" max="37"/>
+    <col width="21" customWidth="1" min="38" max="38"/>
+    <col width="28" customWidth="1" min="39" max="39"/>
+    <col width="20" customWidth="1" min="40" max="40"/>
+    <col width="21" customWidth="1" min="41" max="41"/>
+    <col width="20" customWidth="1" min="42" max="42"/>
+    <col width="28" customWidth="1" min="43" max="43"/>
+    <col width="9" customWidth="1" min="44" max="44"/>
+    <col width="17" customWidth="1" min="45" max="45"/>
+    <col width="24" customWidth="1" min="46" max="46"/>
+    <col width="16" customWidth="1" min="47" max="47"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Student ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Course/Section</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>LRN</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Surname</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Firstname</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Middle Initial</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Gender</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Birthdate</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Birthplace</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Nationality</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Religion</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Marital Status</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Language Spoken</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Street</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Barangay</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>City</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Zip Code</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Province</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Country</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Contact Number</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Father's Name</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Father's Occupation</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Father's Contact No</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Mother's Name</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>Mother's Occupation</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Mother's Contact No</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Guardian's Name</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Guardian's Relationship</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>Guardian's Address</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>Guardian's Occupation</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>Guardian's Contact No</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>Elementary School</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>Elementary Address</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>Elementary Year Graduated</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Junior High School</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Junior High Address</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>Junior High Year Graduated</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>Senior High School</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>Senior High Address</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>Senior High Strand</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>Senior High Year Graduated</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>College</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>College Address</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>College Year Graduated</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>Student Status</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>123123</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>12312312</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>jok</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>jok</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>awefwfe</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>September 21, 1935</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>awfwaef</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>waefawef</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Iglesia ni Cristo</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Single</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>awfeweafew</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>awfwe</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>awefwef</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>awfew</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>2124</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>awfeew</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>awefweaf</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>jok@gmail.com</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>213213</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>awfe</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>fawef</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>123123</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>ewfawef</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>awefwae</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>123123</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>awfwe</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>fwaefewfawef</t>
+        </is>
+      </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>123123</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>awerv</t>
+        </is>
+      </c>
+      <c r="AL2" t="inlineStr">
+        <is>
+          <t>awerv</t>
+        </is>
+      </c>
+      <c r="AM2" t="inlineStr">
+        <is>
+          <t>12312</t>
+        </is>
+      </c>
+      <c r="AN2" t="inlineStr">
+        <is>
+          <t>awefawef</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>awefawef</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr">
+        <is>
+          <t>awefawef</t>
+        </is>
+      </c>
+      <c r="AQ2" t="inlineStr">
+        <is>
+          <t>123123</t>
+        </is>
+      </c>
+      <c r="AR2" t="inlineStr">
+        <is>
+          <t>awev</t>
+        </is>
+      </c>
+      <c r="AS2" t="inlineStr">
+        <is>
+          <t>awevr</t>
+        </is>
+      </c>
+      <c r="AT2" t="inlineStr">
+        <is>
+          <t>123123</t>
+        </is>
+      </c>
+      <c r="AU2" t="inlineStr">
+        <is>
+          <t>New Student</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:BE2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="16" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="2" customWidth="1" min="4" max="4"/>
+    <col width="9" customWidth="1" min="5" max="5"/>
+    <col width="11" customWidth="1" min="6" max="6"/>
+    <col width="16" customWidth="1" min="7" max="7"/>
+    <col width="2" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="5" customWidth="1" min="10" max="10"/>
+    <col width="15" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="12" max="12"/>
+    <col width="13" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="14" max="14"/>
+    <col width="16" customWidth="1" min="15" max="15"/>
+    <col width="17" customWidth="1" min="16" max="16"/>
+    <col width="2" customWidth="1" min="17" max="17"/>
+    <col width="8" customWidth="1" min="18" max="18"/>
+    <col width="10" customWidth="1" min="19" max="19"/>
+    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="10" customWidth="1" min="21" max="21"/>
+    <col width="10" customWidth="1" min="22" max="22"/>
+    <col width="9" customWidth="1" min="23" max="23"/>
+    <col width="2" customWidth="1" min="24" max="24"/>
+    <col width="15" customWidth="1" min="25" max="25"/>
+    <col width="16" customWidth="1" min="26" max="26"/>
+    <col width="2" customWidth="1" min="27" max="27"/>
+    <col width="15" customWidth="1" min="28" max="28"/>
+    <col width="21" customWidth="1" min="29" max="29"/>
+    <col width="21" customWidth="1" min="30" max="30"/>
+    <col width="15" customWidth="1" min="31" max="31"/>
+    <col width="21" customWidth="1" min="32" max="32"/>
+    <col width="21" customWidth="1" min="33" max="33"/>
+    <col width="2" customWidth="1" min="34" max="34"/>
+    <col width="17" customWidth="1" min="35" max="35"/>
+    <col width="25" customWidth="1" min="36" max="36"/>
+    <col width="20" customWidth="1" min="37" max="37"/>
+    <col width="23" customWidth="1" min="38" max="38"/>
+    <col width="23" customWidth="1" min="39" max="39"/>
+    <col width="2" customWidth="1" min="40" max="40"/>
+    <col width="19" customWidth="1" min="41" max="41"/>
+    <col width="20" customWidth="1" min="42" max="42"/>
+    <col width="27" customWidth="1" min="43" max="43"/>
+    <col width="2" customWidth="1" min="44" max="44"/>
+    <col width="20" customWidth="1" min="45" max="45"/>
+    <col width="21" customWidth="1" min="46" max="46"/>
+    <col width="28" customWidth="1" min="47" max="47"/>
+    <col width="2" customWidth="1" min="48" max="48"/>
+    <col width="20" customWidth="1" min="49" max="49"/>
+    <col width="21" customWidth="1" min="50" max="50"/>
+    <col width="20" customWidth="1" min="51" max="51"/>
+    <col width="28" customWidth="1" min="52" max="52"/>
+    <col width="2" customWidth="1" min="53" max="53"/>
+    <col width="9" customWidth="1" min="54" max="54"/>
+    <col width="17" customWidth="1" min="55" max="55"/>
+    <col width="24" customWidth="1" min="56" max="56"/>
+    <col width="16" customWidth="1" min="57" max="57"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Student ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Course/Section</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>LRN</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Surname</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Firstname</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Middle Initial</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Gender</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Birthdate</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Birthplace</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Nationality</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Religion</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Marital Status</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Language Spoken</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Street</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Barangay</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>City</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Zip Code</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Province</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Country</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Contact Number</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Father's Name</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Father's Occupation</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Father's Contact No</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>Mother's Name</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>Mother's Occupation</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>Mother's Contact No</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>Guardian's Name</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>Guardian's Relationship</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Guardian's Address</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Guardian's Occupation</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>Guardian's Contact No</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>Elementary School</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>Elementary Address</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>Elementary Year Graduated</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>Junior High School</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>Junior High Address</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>Junior High Year Graduated</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>Senior High School</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>Senior High Address</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>Senior High Strand</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>Senior High Year Graduated</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>College</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>College Address</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>College Year Graduated</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>Student Status</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>123123</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>123123</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>jok</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>jok</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>wce</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>June 14, 1932</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>awec</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>awerc</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Born Again</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Single</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>awerc</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>awerc</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>awerc</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>awerc</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>awerc</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>awerc</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>jok@gmail.com</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>123123</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>awdewa</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>awdawd</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>123123</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>awdawd</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>awdawd</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>123123</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>we</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr">
+        <is>
+          <t>waef</t>
+        </is>
+      </c>
+      <c r="AQ2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="AS2" t="inlineStr">
+        <is>
+          <t>awef</t>
+        </is>
+      </c>
+      <c r="AT2" t="inlineStr">
+        <is>
+          <t>awef</t>
+        </is>
+      </c>
+      <c r="AU2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="AW2" t="inlineStr">
+        <is>
+          <t>waef</t>
+        </is>
+      </c>
+      <c r="AX2" t="inlineStr">
+        <is>
+          <t>awef</t>
+        </is>
+      </c>
+      <c r="AY2" t="inlineStr">
+        <is>
+          <t>awef</t>
+        </is>
+      </c>
+      <c r="AZ2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="BB2" t="inlineStr">
+        <is>
+          <t>awef</t>
+        </is>
+      </c>
+      <c r="BC2" t="inlineStr">
+        <is>
+          <t>awef</t>
+        </is>
+      </c>
+      <c r="BD2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="BE2" t="inlineStr">
+        <is>
+          <t>Old Student</t>
         </is>
       </c>
     </row>

--- a/user_account_data.xlsx
+++ b/user_account_data.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,6 +487,33 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>admin@gmail.com</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -498,7 +525,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BH2"/>
+  <dimension ref="A1:BH3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -512,34 +539,34 @@
     <col width="2" customWidth="1" min="4" max="4"/>
     <col width="9" customWidth="1" min="5" max="5"/>
     <col width="12" customWidth="1" min="6" max="6"/>
-    <col width="16" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="7" max="7"/>
     <col width="2" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
     <col width="5" customWidth="1" min="10" max="10"/>
-    <col width="15" customWidth="1" min="11" max="11"/>
+    <col width="17" customWidth="1" min="11" max="11"/>
     <col width="14" customWidth="1" min="12" max="12"/>
-    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="20" customWidth="1" min="13" max="13"/>
     <col width="12" customWidth="1" min="14" max="14"/>
     <col width="16" customWidth="1" min="15" max="15"/>
-    <col width="17" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
     <col width="2" customWidth="1" min="17" max="17"/>
     <col width="12" customWidth="1" min="18" max="18"/>
     <col width="12" customWidth="1" min="19" max="19"/>
-    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="20" customWidth="1" min="20" max="20"/>
     <col width="11" customWidth="1" min="21" max="21"/>
-    <col width="13" customWidth="1" min="22" max="22"/>
-    <col width="11" customWidth="1" min="23" max="23"/>
+    <col width="20" customWidth="1" min="22" max="22"/>
+    <col width="20" customWidth="1" min="23" max="23"/>
     <col width="2" customWidth="1" min="24" max="24"/>
     <col width="16" customWidth="1" min="25" max="25"/>
     <col width="16" customWidth="1" min="26" max="26"/>
     <col width="2" customWidth="1" min="27" max="27"/>
-    <col width="16" customWidth="1" min="28" max="28"/>
-    <col width="18" customWidth="1" min="29" max="29"/>
+    <col width="20" customWidth="1" min="28" max="28"/>
+    <col width="20" customWidth="1" min="29" max="29"/>
     <col width="21" customWidth="1" min="30" max="30"/>
     <col width="21" customWidth="1" min="31" max="31"/>
     <col width="2" customWidth="1" min="32" max="32"/>
-    <col width="15" customWidth="1" min="33" max="33"/>
-    <col width="18" customWidth="1" min="34" max="34"/>
+    <col width="20" customWidth="1" min="33" max="33"/>
+    <col width="20" customWidth="1" min="34" max="34"/>
     <col width="21" customWidth="1" min="35" max="35"/>
     <col width="21" customWidth="1" min="36" max="36"/>
     <col width="2" customWidth="1" min="37" max="37"/>
@@ -562,8 +589,8 @@
     <col width="20" customWidth="1" min="54" max="54"/>
     <col width="28" customWidth="1" min="55" max="55"/>
     <col width="2" customWidth="1" min="56" max="56"/>
-    <col width="16" customWidth="1" min="57" max="57"/>
-    <col width="17" customWidth="1" min="58" max="58"/>
+    <col width="20" customWidth="1" min="57" max="57"/>
+    <col width="20" customWidth="1" min="58" max="58"/>
     <col width="24" customWidth="1" min="59" max="59"/>
     <col width="16" customWidth="1" min="60" max="60"/>
   </cols>
@@ -843,22 +870,22 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>aaaaaaa</t>
+          <t>bbbbbbbbbbbbbbbbbbb</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>32</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>June 23, 2026</t>
+          <t>September 25, 1909</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -868,195 +895,392 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
+          <t>bbbbbbbbbbbbbbbbbbb</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Iglesia ni Cristo</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Single</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>bbbbbbbbbbbbbbbbbbb</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>aaaaaaaaaa</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>bbbbbbbbbbbbbbbbbbb</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>bbbbbbbbbbbbbbbbbbb</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>123456789</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>aaaaaaaaaaa</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>bbbbbbbbbbbbbbbbbbb</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>test@gmail.com</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>123456789</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>aaaaaaaaaaaaaa</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>bbbbbbbbbbbbbbbbbbb</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>aaaaaaaaaaaaa</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>123456789</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>aaaaaaaaaaaaa</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>aaaaaaaaaaaaaaa</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>aabbbbbbbbbbbbbbbbbbb</t>
+        </is>
+      </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>123456789</t>
+        </is>
+      </c>
+      <c r="AR2" t="inlineStr">
+        <is>
+          <t>bbbbbbbbbbbbbbbbbbb</t>
+        </is>
+      </c>
+      <c r="AS2" t="inlineStr">
+        <is>
+          <t>aaaaaaaa</t>
+        </is>
+      </c>
+      <c r="AT2" t="inlineStr">
+        <is>
+          <t>123456789</t>
+        </is>
+      </c>
+      <c r="AV2" t="inlineStr">
+        <is>
+          <t>aaaaaaaaaaaaaa</t>
+        </is>
+      </c>
+      <c r="AW2" t="inlineStr">
+        <is>
+          <t>bbbbbbbbbbbbbbbbbbb</t>
+        </is>
+      </c>
+      <c r="AX2" t="inlineStr">
+        <is>
+          <t>123456789</t>
+        </is>
+      </c>
+      <c r="AZ2" t="inlineStr">
+        <is>
+          <t>aaaaaaaaaaaaaa</t>
+        </is>
+      </c>
+      <c r="BA2" t="inlineStr">
+        <is>
+          <t>aaaaaaaaaaaaaa</t>
+        </is>
+      </c>
+      <c r="BB2" t="inlineStr">
+        <is>
+          <t>aaaaaaaaaaaaaa</t>
+        </is>
+      </c>
+      <c r="BC2" t="inlineStr">
+        <is>
+          <t>123456789</t>
+        </is>
+      </c>
+      <c r="BE2" t="inlineStr">
+        <is>
+          <t>bbbbbbbbbbbbbbbbbbb</t>
+        </is>
+      </c>
+      <c r="BF2" t="inlineStr">
+        <is>
+          <t>bbbbbbbbbbbbbbbbbbb</t>
+        </is>
+      </c>
+      <c r="BG2" t="inlineStr">
+        <is>
+          <t>123456789</t>
+        </is>
+      </c>
+      <c r="BH2" t="inlineStr">
+        <is>
+          <t>New Student</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>123456789</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>123456789</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>awefawe</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>awfeawefwe</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>bbbbbbbbbbbbbbbbbb</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>August 23, 1936</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
           <t>aaaaaaaaaaaa</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>bbbbbbbbbbbbbbbbbb</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
         <is>
           <t>Born Again</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>Single</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>bbbbbbbbbbbbbbbbbb</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>aaaaaaaaaa</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>aaaaaaaaaa</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>bbbbbbbbbbbbbbbbbb</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>123456789</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>bbbbbbbbbbbbbbbbbb</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>bbbbbbbbbbbbbbbbbb</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>test@gmail.com</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>123456789</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>bbbbbbbbbbbbbbbbbb</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>bbbbbbbbbbbbbbbbbb</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>aaaaaaaaaaaaa</t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>123456789</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>bbbbbbbbbbbbbbbbbb</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>bbbbbbbbbbbbbbbbbb</t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>aaaaaaaaaaaaa</t>
+        </is>
+      </c>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>123456789</t>
+        </is>
+      </c>
+      <c r="AR3" t="inlineStr">
         <is>
           <t>aaaaaaaaaaaaaa</t>
         </is>
       </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>aaaaaaaaaa</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>aaaaaaaaaa</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>aaaaaaaaaaaa</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>123456789</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>aaaaaaaaaaa</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>aaaaaaaaa</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>test@gmail.com</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>123456789</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AS3" t="inlineStr">
+        <is>
+          <t>aaaaaaaa</t>
+        </is>
+      </c>
+      <c r="AT3" t="inlineStr">
+        <is>
+          <t>123456789</t>
+        </is>
+      </c>
+      <c r="AV3" t="inlineStr">
+        <is>
+          <t>bbbbbbbbbbbbbbbbbb</t>
+        </is>
+      </c>
+      <c r="AW3" t="inlineStr">
+        <is>
+          <t>bbbbbbbbbbbbbbbbbb</t>
+        </is>
+      </c>
+      <c r="AX3" t="inlineStr">
+        <is>
+          <t>123456789</t>
+        </is>
+      </c>
+      <c r="AZ3" t="inlineStr">
         <is>
           <t>aaaaaaaaaaaaaa</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
+      <c r="BA3" t="inlineStr">
         <is>
           <t>aaaaaaaaaaaaaa</t>
         </is>
       </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>aaaaaaaaaaaaa</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>123456789</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>aaaaaaaaaaaaa</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>aaaaaaaaaaaaaaa</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>aaaaaaaaaaaaa</t>
-        </is>
-      </c>
-      <c r="AJ2" t="inlineStr">
-        <is>
-          <t>123456789</t>
-        </is>
-      </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>aaaaaaaaaaaaaaa</t>
-        </is>
-      </c>
-      <c r="AM2" t="inlineStr">
-        <is>
-          <t>aaaaaaaaaaaaa</t>
-        </is>
-      </c>
-      <c r="AN2" t="inlineStr">
-        <is>
-          <t>aaaaaaaaaaaaa</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>aaaaaaaaaaaaa</t>
-        </is>
-      </c>
-      <c r="AP2" t="inlineStr">
-        <is>
-          <t>123456789</t>
-        </is>
-      </c>
-      <c r="AR2" t="inlineStr">
+      <c r="BB3" t="inlineStr">
         <is>
           <t>aaaaaaaaaaaaaa</t>
         </is>
       </c>
-      <c r="AS2" t="inlineStr">
-        <is>
-          <t>aaaaaaaa</t>
-        </is>
-      </c>
-      <c r="AT2" t="inlineStr">
-        <is>
-          <t>123456789</t>
-        </is>
-      </c>
-      <c r="AV2" t="inlineStr">
-        <is>
-          <t>aaaaaaaaaaaaaa</t>
-        </is>
-      </c>
-      <c r="AW2" t="inlineStr">
-        <is>
-          <t>aaaaaaaaaaaaaa</t>
-        </is>
-      </c>
-      <c r="AX2" t="inlineStr">
-        <is>
-          <t>123456789</t>
-        </is>
-      </c>
-      <c r="AZ2" t="inlineStr">
-        <is>
-          <t>aaaaaaaaaaaaaa</t>
-        </is>
-      </c>
-      <c r="BA2" t="inlineStr">
-        <is>
-          <t>aaaaaaaaaaaaaa</t>
-        </is>
-      </c>
-      <c r="BB2" t="inlineStr">
-        <is>
-          <t>aaaaaaaaaaaaaa</t>
-        </is>
-      </c>
-      <c r="BC2" t="inlineStr">
-        <is>
-          <t>123456789</t>
-        </is>
-      </c>
-      <c r="BE2" t="inlineStr">
-        <is>
-          <t>aaaaaaaaaaaaaa</t>
-        </is>
-      </c>
-      <c r="BF2" t="inlineStr">
-        <is>
-          <t>aaaaaaaaaaaaaa</t>
-        </is>
-      </c>
-      <c r="BG2" t="inlineStr">
-        <is>
-          <t>123456789</t>
-        </is>
-      </c>
-      <c r="BH2" t="inlineStr">
+      <c r="BC3" t="inlineStr">
+        <is>
+          <t>123456789</t>
+        </is>
+      </c>
+      <c r="BE3" t="inlineStr">
+        <is>
+          <t>bbbbbbbbbbbbbbbbbb</t>
+        </is>
+      </c>
+      <c r="BF3" t="inlineStr">
+        <is>
+          <t>bbbbbbbbbbbbbbbbbb</t>
+        </is>
+      </c>
+      <c r="BG3" t="inlineStr">
+        <is>
+          <t>123456789</t>
+        </is>
+      </c>
+      <c r="BH3" t="inlineStr">
         <is>
           <t>New Student</t>
         </is>

--- a/user_account_data.xlsx
+++ b/user_account_data.xlsx
@@ -463,54 +463,54 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>123456</t>
+          <t>admin</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>123456</t>
+          <t>admin</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>test@gmail.com</t>
+          <t>admin@gmail.com</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>admin</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>123456</t>
+          <t>admin123</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>admin</t>
+          <t>far</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>admin</t>
+          <t>raf</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>admin@gmail.com</t>
+          <t>far@gmail.com</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>admin</t>
+          <t>far</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>admin123</t>
+          <t>123456</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BH3"/>
+  <dimension ref="A1:BH2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -535,38 +535,38 @@
   <cols>
     <col width="12" customWidth="1" min="1" max="1"/>
     <col width="16" customWidth="1" min="2" max="2"/>
-    <col width="11" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="2" customWidth="1" min="4" max="4"/>
     <col width="9" customWidth="1" min="5" max="5"/>
-    <col width="12" customWidth="1" min="6" max="6"/>
-    <col width="20" customWidth="1" min="7" max="7"/>
+    <col width="11" customWidth="1" min="6" max="6"/>
+    <col width="16" customWidth="1" min="7" max="7"/>
     <col width="2" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
     <col width="5" customWidth="1" min="10" max="10"/>
-    <col width="17" customWidth="1" min="11" max="11"/>
-    <col width="14" customWidth="1" min="12" max="12"/>
-    <col width="20" customWidth="1" min="13" max="13"/>
-    <col width="12" customWidth="1" min="14" max="14"/>
+    <col width="15" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="12" max="12"/>
+    <col width="13" customWidth="1" min="13" max="13"/>
+    <col width="10" customWidth="1" min="14" max="14"/>
     <col width="16" customWidth="1" min="15" max="15"/>
-    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="17" customWidth="1" min="16" max="16"/>
     <col width="2" customWidth="1" min="17" max="17"/>
-    <col width="12" customWidth="1" min="18" max="18"/>
-    <col width="12" customWidth="1" min="19" max="19"/>
-    <col width="20" customWidth="1" min="20" max="20"/>
-    <col width="11" customWidth="1" min="21" max="21"/>
-    <col width="20" customWidth="1" min="22" max="22"/>
-    <col width="20" customWidth="1" min="23" max="23"/>
+    <col width="11" customWidth="1" min="18" max="18"/>
+    <col width="10" customWidth="1" min="19" max="19"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="10" customWidth="1" min="21" max="21"/>
+    <col width="10" customWidth="1" min="22" max="22"/>
+    <col width="9" customWidth="1" min="23" max="23"/>
     <col width="2" customWidth="1" min="24" max="24"/>
-    <col width="16" customWidth="1" min="25" max="25"/>
+    <col width="15" customWidth="1" min="25" max="25"/>
     <col width="16" customWidth="1" min="26" max="26"/>
     <col width="2" customWidth="1" min="27" max="27"/>
-    <col width="20" customWidth="1" min="28" max="28"/>
-    <col width="20" customWidth="1" min="29" max="29"/>
+    <col width="15" customWidth="1" min="28" max="28"/>
+    <col width="18" customWidth="1" min="29" max="29"/>
     <col width="21" customWidth="1" min="30" max="30"/>
     <col width="21" customWidth="1" min="31" max="31"/>
     <col width="2" customWidth="1" min="32" max="32"/>
-    <col width="20" customWidth="1" min="33" max="33"/>
-    <col width="20" customWidth="1" min="34" max="34"/>
+    <col width="15" customWidth="1" min="33" max="33"/>
+    <col width="18" customWidth="1" min="34" max="34"/>
     <col width="21" customWidth="1" min="35" max="35"/>
     <col width="21" customWidth="1" min="36" max="36"/>
     <col width="2" customWidth="1" min="37" max="37"/>
@@ -589,8 +589,8 @@
     <col width="20" customWidth="1" min="54" max="54"/>
     <col width="28" customWidth="1" min="55" max="55"/>
     <col width="2" customWidth="1" min="56" max="56"/>
-    <col width="20" customWidth="1" min="57" max="57"/>
-    <col width="20" customWidth="1" min="58" max="58"/>
+    <col width="9" customWidth="1" min="57" max="57"/>
+    <col width="17" customWidth="1" min="58" max="58"/>
     <col width="24" customWidth="1" min="59" max="59"/>
     <col width="16" customWidth="1" min="60" max="60"/>
   </cols>
@@ -845,7 +845,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>123456789</t>
+          <t>12345</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -855,434 +855,237 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>123456789</t>
+          <t>12345</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>awefawe</t>
+          <t>raf</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>awfeawefwe</t>
+          <t>far</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>bbbbbbbbbbbbbbbbbbb</t>
+          <t>asdasda</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Prefer not to answer</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>29</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>September 25, 1909</t>
+          <t>July 27, 1918</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
+          <t>aaaaaaaaaaaaaaaaaaaaaa</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>aaaaaaaaaaaaaaaaa</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Muslim</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Married</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
           <t>aaaaaaaaaaaa</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>bbbbbbbbbbbbbbbbbbb</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>Iglesia ni Cristo</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>Single</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>bbbbbbbbbbbbbbbbbbb</t>
-        </is>
-      </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>aaaaaaaaaa</t>
+          <t>sadasdasd</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>bbbbbbbbbbbbbbbbbbb</t>
+          <t>bbbbbbbbbbbbbbbbb</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>bbbbbbbbbbbbbbbbbbb</t>
+          <t>bbbbbbbbbbbbbbbbb</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>123456789</t>
+          <t>12345</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>aaaaaaaaaaa</t>
+          <t>awdawd</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>bbbbbbbbbbbbbbbbbbb</t>
+          <t>bbbbbbbbbbbbbbbbb</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>test@gmail.com</t>
+          <t>far@gmail.com</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>123456789</t>
+          <t>12345</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>aaaaaaaaaaaaaa</t>
+          <t>bbbbbbbbbbbbbbbbb</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>bbbbbbbbbbbbbbbbbbb</t>
+          <t>bbbbbbbbbbbbbbbbb</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>aaaaaaaaaaaaa</t>
+          <t>awdawd</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>123456789</t>
+          <t>12345</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>aaaaaaaaaaaaa</t>
+          <t>bbbbbbbbbbbbbbbbb</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>aaaaaaaaaaaaaaa</t>
+          <t>asasfasfas</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>aabbbbbbbbbbbbbbbbbbb</t>
+          <t>awdawd</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>123456789</t>
+          <t>12345</t>
+        </is>
+      </c>
+      <c r="AL2" t="inlineStr">
+        <is>
+          <t>fdsefsea</t>
+        </is>
+      </c>
+      <c r="AM2" t="inlineStr">
+        <is>
+          <t>dddddddddddddddddd</t>
+        </is>
+      </c>
+      <c r="AN2" t="inlineStr">
+        <is>
+          <t>ddddddddddddd</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>aaaaaaaaaaaaaaaa</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr">
+        <is>
+          <t>23423423</t>
         </is>
       </c>
       <c r="AR2" t="inlineStr">
         <is>
-          <t>bbbbbbbbbbbbbbbbbbb</t>
+          <t>bbbbbbbbbbbbbbbbb</t>
         </is>
       </c>
       <c r="AS2" t="inlineStr">
         <is>
-          <t>aaaaaaaa</t>
+          <t>awcacw</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr">
         <is>
-          <t>123456789</t>
+          <t>12345</t>
         </is>
       </c>
       <c r="AV2" t="inlineStr">
         <is>
-          <t>aaaaaaaaaaaaaa</t>
+          <t>asdasd</t>
         </is>
       </c>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>bbbbbbbbbbbbbbbbbbb</t>
+          <t>bbbbbbbbbbbbbbbbb</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>123456789</t>
+          <t>12345</t>
         </is>
       </c>
       <c r="AZ2" t="inlineStr">
         <is>
-          <t>aaaaaaaaaaaaaa</t>
+          <t>awcawcaw</t>
         </is>
       </c>
       <c r="BA2" t="inlineStr">
         <is>
-          <t>aaaaaaaaaaaaaa</t>
+          <t>ascawca</t>
         </is>
       </c>
       <c r="BB2" t="inlineStr">
         <is>
-          <t>aaaaaaaaaaaaaa</t>
+          <t>acscasc</t>
         </is>
       </c>
       <c r="BC2" t="inlineStr">
         <is>
-          <t>123456789</t>
+          <t>12345</t>
         </is>
       </c>
       <c r="BE2" t="inlineStr">
         <is>
-          <t>bbbbbbbbbbbbbbbbbbb</t>
+          <t>asdasd</t>
         </is>
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>bbbbbbbbbbbbbbbbbbb</t>
+          <t>asdasd</t>
         </is>
       </c>
       <c r="BG2" t="inlineStr">
         <is>
-          <t>123456789</t>
+          <t>12345</t>
         </is>
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>New Student</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>123456789</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>1A</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>123456789</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>awefawe</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>awfeawefwe</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>bbbbbbbbbbbbbbbbbb</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>August 23, 1936</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>aaaaaaaaaaaa</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>bbbbbbbbbbbbbbbbbb</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>Born Again</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>Single</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>bbbbbbbbbbbbbbbbbb</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>aaaaaaaaaa</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>aaaaaaaaaa</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>bbbbbbbbbbbbbbbbbb</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>123456789</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>bbbbbbbbbbbbbbbbbb</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>bbbbbbbbbbbbbbbbbb</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>test@gmail.com</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>123456789</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>bbbbbbbbbbbbbbbbbb</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>bbbbbbbbbbbbbbbbbb</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>aaaaaaaaaaaaa</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>123456789</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>bbbbbbbbbbbbbbbbbb</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>bbbbbbbbbbbbbbbbbb</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>aaaaaaaaaaaaa</t>
-        </is>
-      </c>
-      <c r="AJ3" t="inlineStr">
-        <is>
-          <t>123456789</t>
-        </is>
-      </c>
-      <c r="AR3" t="inlineStr">
-        <is>
-          <t>aaaaaaaaaaaaaa</t>
-        </is>
-      </c>
-      <c r="AS3" t="inlineStr">
-        <is>
-          <t>aaaaaaaa</t>
-        </is>
-      </c>
-      <c r="AT3" t="inlineStr">
-        <is>
-          <t>123456789</t>
-        </is>
-      </c>
-      <c r="AV3" t="inlineStr">
-        <is>
-          <t>bbbbbbbbbbbbbbbbbb</t>
-        </is>
-      </c>
-      <c r="AW3" t="inlineStr">
-        <is>
-          <t>bbbbbbbbbbbbbbbbbb</t>
-        </is>
-      </c>
-      <c r="AX3" t="inlineStr">
-        <is>
-          <t>123456789</t>
-        </is>
-      </c>
-      <c r="AZ3" t="inlineStr">
-        <is>
-          <t>aaaaaaaaaaaaaa</t>
-        </is>
-      </c>
-      <c r="BA3" t="inlineStr">
-        <is>
-          <t>aaaaaaaaaaaaaa</t>
-        </is>
-      </c>
-      <c r="BB3" t="inlineStr">
-        <is>
-          <t>aaaaaaaaaaaaaa</t>
-        </is>
-      </c>
-      <c r="BC3" t="inlineStr">
-        <is>
-          <t>123456789</t>
-        </is>
-      </c>
-      <c r="BE3" t="inlineStr">
-        <is>
-          <t>bbbbbbbbbbbbbbbbbb</t>
-        </is>
-      </c>
-      <c r="BF3" t="inlineStr">
-        <is>
-          <t>bbbbbbbbbbbbbbbbbb</t>
-        </is>
-      </c>
-      <c r="BG3" t="inlineStr">
-        <is>
-          <t>123456789</t>
-        </is>
-      </c>
-      <c r="BH3" t="inlineStr">
-        <is>
-          <t>New Student</t>
+          <t>Transferee</t>
         </is>
       </c>
     </row>

--- a/user_account_data.xlsx
+++ b/user_account_data.xlsx
@@ -426,9 +426,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="10" customWidth="1" min="1" max="1"/>
-    <col width="10" customWidth="1" min="2" max="2"/>
-    <col width="10" customWidth="1" min="3" max="3"/>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="11" customWidth="1" min="2" max="2"/>
+    <col width="17" customWidth="1" min="3" max="3"/>
     <col width="10" customWidth="1" min="4" max="4"/>
     <col width="10" customWidth="1" min="5" max="5"/>
   </cols>
@@ -468,7 +468,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>admin</t>
+          <t>admins</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -490,27 +490,27 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>far</t>
+          <t>Joshua</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>raf</t>
+          <t>Barotea</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>far@gmail.com</t>
+          <t>josh@gmail.com</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>far</t>
+          <t>Leader</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>123456</t>
+          <t>qwerty</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BH2"/>
+  <dimension ref="A1:BG2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -535,7 +535,7 @@
   <cols>
     <col width="12" customWidth="1" min="1" max="1"/>
     <col width="16" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
     <col width="2" customWidth="1" min="4" max="4"/>
     <col width="9" customWidth="1" min="5" max="5"/>
     <col width="11" customWidth="1" min="6" max="6"/>
@@ -543,21 +543,21 @@
     <col width="2" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
     <col width="5" customWidth="1" min="10" max="10"/>
-    <col width="15" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
     <col width="12" customWidth="1" min="12" max="12"/>
     <col width="13" customWidth="1" min="13" max="13"/>
     <col width="10" customWidth="1" min="14" max="14"/>
     <col width="16" customWidth="1" min="15" max="15"/>
     <col width="17" customWidth="1" min="16" max="16"/>
     <col width="2" customWidth="1" min="17" max="17"/>
-    <col width="11" customWidth="1" min="18" max="18"/>
+    <col width="9" customWidth="1" min="18" max="18"/>
     <col width="10" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="6" customWidth="1" min="20" max="20"/>
     <col width="10" customWidth="1" min="21" max="21"/>
     <col width="10" customWidth="1" min="22" max="22"/>
     <col width="9" customWidth="1" min="23" max="23"/>
     <col width="2" customWidth="1" min="24" max="24"/>
-    <col width="15" customWidth="1" min="25" max="25"/>
+    <col width="16" customWidth="1" min="25" max="25"/>
     <col width="16" customWidth="1" min="26" max="26"/>
     <col width="2" customWidth="1" min="27" max="27"/>
     <col width="15" customWidth="1" min="28" max="28"/>
@@ -592,7 +592,6 @@
     <col width="9" customWidth="1" min="57" max="57"/>
     <col width="17" customWidth="1" min="58" max="58"/>
     <col width="24" customWidth="1" min="59" max="59"/>
-    <col width="16" customWidth="1" min="60" max="60"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -836,16 +835,11 @@
           <t>College Year Graduated</t>
         </is>
       </c>
-      <c r="BH1" s="1" t="inlineStr">
-        <is>
-          <t>Student Status</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>12345</t>
+          <t>0251A-0437</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -855,52 +849,52 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>12345</t>
+          <t>200112131091</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>raf</t>
+          <t>Barotea</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>far</t>
+          <t>Joshua</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>asdasda</t>
+          <t>Leader</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Prefer not to answer</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>18</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>July 27, 1918</t>
+          <t>June 6, 2006</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>aaaaaaaaaaaaaaaaaaaaaa</t>
+          <t>Leadery</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>aaaaaaaaaaaaaaaaa</t>
+          <t>Leaders</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>Muslim</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -910,182 +904,152 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>aaaaaaaaaaaa</t>
+          <t>OnlyLeader</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>sadasdasd</t>
+          <t>country</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>bbbbbbbbbbbbbbbbb</t>
+          <t>street</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>bbbbbbbbbbbbbbbbb</t>
+          <t>brgy</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>12345</t>
+          <t>1234</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>awdawd</t>
+          <t>city</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>bbbbbbbbbbbbbbbbb</t>
+          <t>street</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>far@gmail.com</t>
+          <t>josh@gmail.com</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>12345</t>
+          <t>1234</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>bbbbbbbbbbbbbbbbb</t>
+          <t>mother</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>bbbbbbbbbbbbbbbbb</t>
+          <t>moth</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>awdawd</t>
+          <t>er</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>12345</t>
+          <t>1234</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>bbbbbbbbbbbbbbbbb</t>
+          <t>father</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>asasfasfas</t>
+          <t>fath</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>awdawd</t>
+          <t>er</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>12345</t>
-        </is>
-      </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>fdsefsea</t>
-        </is>
-      </c>
-      <c r="AM2" t="inlineStr">
-        <is>
-          <t>dddddddddddddddddd</t>
-        </is>
-      </c>
-      <c r="AN2" t="inlineStr">
-        <is>
-          <t>ddddddddddddd</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>aaaaaaaaaaaaaaaa</t>
-        </is>
-      </c>
-      <c r="AP2" t="inlineStr">
-        <is>
-          <t>23423423</t>
+          <t>1234</t>
         </is>
       </c>
       <c r="AR2" t="inlineStr">
         <is>
-          <t>bbbbbbbbbbbbbbbbb</t>
+          <t>shs</t>
         </is>
       </c>
       <c r="AS2" t="inlineStr">
         <is>
-          <t>awcacw</t>
+          <t>jhs</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr">
         <is>
-          <t>12345</t>
+          <t>1234</t>
         </is>
       </c>
       <c r="AV2" t="inlineStr">
         <is>
-          <t>asdasd</t>
+          <t>elem</t>
         </is>
       </c>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>bbbbbbbbbbbbbbbbb</t>
+          <t>shs</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>12345</t>
+          <t>4321</t>
         </is>
       </c>
       <c r="AZ2" t="inlineStr">
         <is>
-          <t>awcawcaw</t>
+          <t>elem</t>
         </is>
       </c>
       <c r="BA2" t="inlineStr">
         <is>
-          <t>ascawca</t>
+          <t>jhs</t>
         </is>
       </c>
       <c r="BB2" t="inlineStr">
         <is>
-          <t>acscasc</t>
+          <t>shs</t>
         </is>
       </c>
       <c r="BC2" t="inlineStr">
         <is>
-          <t>12345</t>
+          <t>2314</t>
         </is>
       </c>
       <c r="BE2" t="inlineStr">
         <is>
-          <t>asdasd</t>
+          <t>elem</t>
         </is>
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>asdasd</t>
+          <t>hjhs</t>
         </is>
       </c>
       <c r="BG2" t="inlineStr">
         <is>
-          <t>12345</t>
-        </is>
-      </c>
-      <c r="BH2" t="inlineStr">
-        <is>
-          <t>Transferee</t>
+          <t>3124</t>
         </is>
       </c>
     </row>

--- a/user_account_data.xlsx
+++ b/user_account_data.xlsx
@@ -2,29 +2,38 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Userdata" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="1A Enrollment Information " sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <sz val="11"/>
     </font>
     <font>
       <b val="1"/>
@@ -50,12 +59,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -418,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -428,33 +439,33 @@
   <cols>
     <col width="12" customWidth="1" min="1" max="1"/>
     <col width="11" customWidth="1" min="2" max="2"/>
-    <col width="17" customWidth="1" min="3" max="3"/>
-    <col width="10" customWidth="1" min="4" max="4"/>
+    <col width="22" customWidth="1" min="3" max="3"/>
+    <col width="10" customWidth="1" min="4" max="5"/>
     <col width="10" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>First Name</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>Last Name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>Email</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>Username</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>Password</t>
         </is>
@@ -511,6 +522,60 @@
       <c r="E3" t="inlineStr">
         <is>
           <t>qwerty</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Crissy Lea</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Esmeralda</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>CuteAko123@gmail.com</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Crissy</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>123456</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Zed</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Syndra</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Zed@yahoo.com</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>ZedSyn</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>zed123</t>
         </is>
       </c>
     </row>
@@ -525,10 +590,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BG2"/>
+  <dimension ref="A1:BG4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -537,43 +602,43 @@
     <col width="16" customWidth="1" min="2" max="2"/>
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="2" customWidth="1" min="4" max="4"/>
-    <col width="9" customWidth="1" min="5" max="5"/>
-    <col width="11" customWidth="1" min="6" max="6"/>
+    <col width="11" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="6" max="6"/>
     <col width="16" customWidth="1" min="7" max="7"/>
     <col width="2" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
     <col width="5" customWidth="1" min="10" max="10"/>
-    <col width="14" customWidth="1" min="11" max="11"/>
-    <col width="12" customWidth="1" min="12" max="12"/>
+    <col width="18" customWidth="1" min="11" max="11"/>
+    <col width="13" customWidth="1" min="12" max="12"/>
     <col width="13" customWidth="1" min="13" max="13"/>
-    <col width="10" customWidth="1" min="14" max="14"/>
+    <col width="16" customWidth="1" min="14" max="15"/>
     <col width="16" customWidth="1" min="15" max="15"/>
     <col width="17" customWidth="1" min="16" max="16"/>
     <col width="2" customWidth="1" min="17" max="17"/>
-    <col width="9" customWidth="1" min="18" max="18"/>
-    <col width="10" customWidth="1" min="19" max="19"/>
-    <col width="6" customWidth="1" min="20" max="20"/>
-    <col width="10" customWidth="1" min="21" max="21"/>
+    <col width="19" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="13" customWidth="1" min="20" max="20"/>
+    <col width="10" customWidth="1" min="21" max="22"/>
     <col width="10" customWidth="1" min="22" max="22"/>
-    <col width="9" customWidth="1" min="23" max="23"/>
+    <col width="13" customWidth="1" min="23" max="23"/>
     <col width="2" customWidth="1" min="24" max="24"/>
-    <col width="16" customWidth="1" min="25" max="25"/>
+    <col width="22" customWidth="1" min="25" max="25"/>
     <col width="16" customWidth="1" min="26" max="26"/>
     <col width="2" customWidth="1" min="27" max="27"/>
     <col width="15" customWidth="1" min="28" max="28"/>
     <col width="18" customWidth="1" min="29" max="29"/>
-    <col width="21" customWidth="1" min="30" max="30"/>
+    <col width="21" customWidth="1" min="30" max="31"/>
     <col width="21" customWidth="1" min="31" max="31"/>
     <col width="2" customWidth="1" min="32" max="32"/>
-    <col width="15" customWidth="1" min="33" max="33"/>
+    <col width="16" customWidth="1" min="33" max="33"/>
     <col width="18" customWidth="1" min="34" max="34"/>
-    <col width="21" customWidth="1" min="35" max="35"/>
+    <col width="21" customWidth="1" min="35" max="36"/>
     <col width="21" customWidth="1" min="36" max="36"/>
     <col width="2" customWidth="1" min="37" max="37"/>
     <col width="17" customWidth="1" min="38" max="38"/>
     <col width="25" customWidth="1" min="39" max="39"/>
     <col width="20" customWidth="1" min="40" max="40"/>
-    <col width="23" customWidth="1" min="41" max="41"/>
+    <col width="23" customWidth="1" min="41" max="42"/>
     <col width="23" customWidth="1" min="42" max="42"/>
     <col width="2" customWidth="1" min="43" max="43"/>
     <col width="19" customWidth="1" min="44" max="44"/>
@@ -595,242 +660,242 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>Student ID</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>Course/Section</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>LRN</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>Surname</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Firstname</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Middle Initial</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Gender</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Birthdate</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" s="3" t="inlineStr">
         <is>
           <t>Birthplace</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>Nationality</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" s="3" t="inlineStr">
         <is>
           <t>Religion</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" s="3" t="inlineStr">
         <is>
           <t>Marital Status</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" s="3" t="inlineStr">
         <is>
           <t>Language Spoken</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="R1" s="3" t="inlineStr">
         <is>
           <t>Street</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="S1" s="3" t="inlineStr">
         <is>
           <t>Barangay</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="T1" s="3" t="inlineStr">
         <is>
           <t>City</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="U1" s="3" t="inlineStr">
         <is>
           <t>Zip Code</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="V1" s="3" t="inlineStr">
         <is>
           <t>Province</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="W1" s="3" t="inlineStr">
         <is>
           <t>Country</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Y1" s="3" t="inlineStr">
         <is>
           <t>Email</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="Z1" s="3" t="inlineStr">
         <is>
           <t>Contact Number</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AB1" s="3" t="inlineStr">
         <is>
           <t>Father's Name</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AC1" s="3" t="inlineStr">
         <is>
           <t>Father's Address</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AD1" s="3" t="inlineStr">
         <is>
           <t>Father's Occupation</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AE1" s="3" t="inlineStr">
         <is>
           <t>Father's Contact No</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AG1" s="3" t="inlineStr">
         <is>
           <t>Mother's Name</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AH1" s="3" t="inlineStr">
         <is>
           <t>Mother's Address</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AI1" s="3" t="inlineStr">
         <is>
           <t>Mother's Occupation</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AJ1" s="3" t="inlineStr">
         <is>
           <t>Mother's Contact No</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AL1" s="3" t="inlineStr">
         <is>
           <t>Guardian's Name</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AM1" s="3" t="inlineStr">
         <is>
           <t>Guardian's Relationship</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AN1" s="3" t="inlineStr">
         <is>
           <t>Guardian's Address</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AO1" s="3" t="inlineStr">
         <is>
           <t>Guardian's Occupation</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AP1" s="3" t="inlineStr">
         <is>
           <t>Guardian's Contact No</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AR1" s="3" t="inlineStr">
         <is>
           <t>Elementary School</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AS1" s="3" t="inlineStr">
         <is>
           <t>Elementary Address</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="AT1" s="3" t="inlineStr">
         <is>
           <t>Elementary Year Graduated</t>
         </is>
       </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="AV1" s="3" t="inlineStr">
         <is>
           <t>Junior High School</t>
         </is>
       </c>
-      <c r="AW1" s="1" t="inlineStr">
+      <c r="AW1" s="3" t="inlineStr">
         <is>
           <t>Junior High Address</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="AX1" s="3" t="inlineStr">
         <is>
           <t>Junior High Year Graduated</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="AZ1" s="3" t="inlineStr">
         <is>
           <t>Senior High School</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="BA1" s="3" t="inlineStr">
         <is>
           <t>Senior High Address</t>
         </is>
       </c>
-      <c r="BB1" s="1" t="inlineStr">
+      <c r="BB1" s="3" t="inlineStr">
         <is>
           <t>Senior High Strand</t>
         </is>
       </c>
-      <c r="BC1" s="1" t="inlineStr">
+      <c r="BC1" s="3" t="inlineStr">
         <is>
           <t>Senior High Year Graduated</t>
         </is>
       </c>
-      <c r="BE1" s="1" t="inlineStr">
+      <c r="BE1" s="3" t="inlineStr">
         <is>
           <t>College</t>
         </is>
       </c>
-      <c r="BF1" s="1" t="inlineStr">
+      <c r="BF1" s="3" t="inlineStr">
         <is>
           <t>College Address</t>
         </is>
       </c>
-      <c r="BG1" s="1" t="inlineStr">
+      <c r="BG1" s="3" t="inlineStr">
         <is>
           <t>College Year Graduated</t>
         </is>
@@ -1050,6 +1115,450 @@
       <c r="BG2" t="inlineStr">
         <is>
           <t>3124</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>0251A-2055</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>200112135443</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Esmeralda</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Crissy Lea</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>A.</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>January 19, 2001</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Lucena City</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Filipino</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Roman Catholic</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Single</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Tagalog</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>Dulo ng Hangganan</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>IV OF SPADES</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>Lucena City</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>1111</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>Quezon</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>CuteAko123@gmail.com</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>123465798</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>Levi Ackerman</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>Ibabang Iyam</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>Pilot</t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>456132</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>Nami D. Dragon</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>Kanlurang Mayao</t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>Navigator</t>
+        </is>
+      </c>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>465798</t>
+        </is>
+      </c>
+      <c r="AR3" t="inlineStr">
+        <is>
+          <t>QH</t>
+        </is>
+      </c>
+      <c r="AS3" t="inlineStr">
+        <is>
+          <t>Ibabang Dupay</t>
+        </is>
+      </c>
+      <c r="AT3" t="inlineStr">
+        <is>
+          <t>2001</t>
+        </is>
+      </c>
+      <c r="AV3" t="inlineStr">
+        <is>
+          <t>QH</t>
+        </is>
+      </c>
+      <c r="AW3" t="inlineStr">
+        <is>
+          <t>Ilayang Iyam</t>
+        </is>
+      </c>
+      <c r="AX3" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
+      </c>
+      <c r="AZ3" t="inlineStr">
+        <is>
+          <t>YASUO</t>
+        </is>
+      </c>
+      <c r="BA3" t="inlineStr">
+        <is>
+          <t>Silangang Mayao</t>
+        </is>
+      </c>
+      <c r="BB3" t="inlineStr">
+        <is>
+          <t>TVL-ICT</t>
+        </is>
+      </c>
+      <c r="BC3" t="inlineStr">
+        <is>
+          <t>2003</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>0251A-7620</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>200112137846</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Syndra</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Zed</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Y.</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>April 13, 2005</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Lucena City</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Filipino</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Roman Catholic</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Single</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Tagalog</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>Ionia</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>Runterra</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>Lucena City</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>2222</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>Quezon</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>Zed@yahoo.com</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>123456798</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>Yi</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>Mayao Castillo</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>Doctor</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>123465</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>Fiora</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>Dalahican</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>Doctor</t>
+        </is>
+      </c>
+      <c r="AJ4" t="inlineStr">
+        <is>
+          <t>132456</t>
+        </is>
+      </c>
+      <c r="AL4" t="inlineStr">
+        <is>
+          <t>Darius Draven</t>
+        </is>
+      </c>
+      <c r="AM4" t="inlineStr">
+        <is>
+          <t>Uncle</t>
+        </is>
+      </c>
+      <c r="AN4" t="inlineStr">
+        <is>
+          <t>Noxus</t>
+        </is>
+      </c>
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>Doctor</t>
+        </is>
+      </c>
+      <c r="AP4" t="inlineStr">
+        <is>
+          <t>456789</t>
+        </is>
+      </c>
+      <c r="AR4" t="inlineStr">
+        <is>
+          <t>Ionia Elem</t>
+        </is>
+      </c>
+      <c r="AS4" t="inlineStr">
+        <is>
+          <t>Ibabang Iyam</t>
+        </is>
+      </c>
+      <c r="AT4" t="inlineStr">
+        <is>
+          <t>2001</t>
+        </is>
+      </c>
+      <c r="AV4" t="inlineStr">
+        <is>
+          <t>Ionia Junior</t>
+        </is>
+      </c>
+      <c r="AW4" t="inlineStr">
+        <is>
+          <t>Brgy 2</t>
+        </is>
+      </c>
+      <c r="AX4" t="inlineStr">
+        <is>
+          <t>2001</t>
+        </is>
+      </c>
+      <c r="AZ4" t="inlineStr">
+        <is>
+          <t>Ionia Senior</t>
+        </is>
+      </c>
+      <c r="BA4" t="inlineStr">
+        <is>
+          <t>Brgy 3</t>
+        </is>
+      </c>
+      <c r="BB4" t="inlineStr">
+        <is>
+          <t>Sports</t>
+        </is>
+      </c>
+      <c r="BC4" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
+      </c>
+      <c r="BE4" t="inlineStr">
+        <is>
+          <t>STI</t>
+        </is>
+      </c>
+      <c r="BF4" t="inlineStr">
+        <is>
+          <t>Lucena City</t>
+        </is>
+      </c>
+      <c r="BG4" t="inlineStr">
+        <is>
+          <t>2006</t>
         </is>
       </c>
     </row>

--- a/user_account_data.xlsx
+++ b/user_account_data.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M S I\Desktop\BSIT_Finals_Project_Collab\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF797945-300B-457A-B59A-3557453B7EE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7500" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Userdata" sheetId="1" r:id="rId1"/>
@@ -12,25 +18,12 @@
     <sheet name="1B Enrollment Information " sheetId="3" r:id="rId3"/>
     <sheet name="1C Enrollment Information " sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1267" uniqueCount="592">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1409" uniqueCount="671">
   <si>
     <t>First Name</t>
   </si>
@@ -149,6 +142,24 @@
     <t>biboypogi</t>
   </si>
   <si>
+    <t xml:space="preserve">Zed
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aquino
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ajsls@gmail.com
+</t>
+  </si>
+  <si>
+    <t>zedy</t>
+  </si>
+  <si>
+    <t>zedy1234</t>
+  </si>
+  <si>
     <t>Student ID</t>
   </si>
   <si>
@@ -563,7 +574,7 @@
     <t>2006</t>
   </si>
   <si>
-    <t>0251A-1556</t>
+    <t>0251A-3454</t>
   </si>
   <si>
     <t>200112134456</t>
@@ -710,7 +721,7 @@
     <t>2025</t>
   </si>
   <si>
-    <t>0251A-1558</t>
+    <t>0251A-4563</t>
   </si>
   <si>
     <t>200112138946</t>
@@ -758,7 +769,7 @@
     <t>2026</t>
   </si>
   <si>
-    <t>0251A-1559</t>
+    <t>0251A-3456</t>
   </si>
   <si>
     <t>200112134038</t>
@@ -803,7 +814,7 @@
     <t>2027</t>
   </si>
   <si>
-    <t>0251A-1560</t>
+    <t>0251A-1236</t>
   </si>
   <si>
     <t>200112134493</t>
@@ -845,7 +856,7 @@
     <t>2028</t>
   </si>
   <si>
-    <t>0251A-1561</t>
+    <t>0251A-7453</t>
   </si>
   <si>
     <t>200112133234</t>
@@ -986,6 +997,12 @@
     <t>E.</t>
   </si>
   <si>
+    <t>March 16, 2006</t>
+  </si>
+  <si>
+    <t>Weh</t>
+  </si>
+  <si>
     <t>banahaw</t>
   </si>
   <si>
@@ -1022,7 +1039,7 @@
     <t>Brgy 6</t>
   </si>
   <si>
-    <t>0251B-0441</t>
+    <t>0251B-0788</t>
   </si>
   <si>
     <t>200112133929</t>
@@ -1034,6 +1051,12 @@
     <t>B.</t>
   </si>
   <si>
+    <t>March 16, 2007</t>
+  </si>
+  <si>
+    <t>tin</t>
+  </si>
+  <si>
     <t>wan</t>
   </si>
   <si>
@@ -1061,7 +1084,7 @@
     <t>Brgy 7</t>
   </si>
   <si>
-    <t>0251B-0442</t>
+    <t>0251B-5468</t>
   </si>
   <si>
     <t>200112132383</t>
@@ -1070,6 +1093,9 @@
     <t>yumi</t>
   </si>
   <si>
+    <t>March 16, 2008</t>
+  </si>
+  <si>
     <t>james</t>
   </si>
   <si>
@@ -1100,7 +1126,7 @@
     <t>Brgy 8</t>
   </si>
   <si>
-    <t>0251B-0443</t>
+    <t>0251B-7808</t>
   </si>
   <si>
     <t>200112133203</t>
@@ -1115,6 +1141,12 @@
     <t>G.</t>
   </si>
   <si>
+    <t>March 16, 2009</t>
+  </si>
+  <si>
+    <t>cart</t>
+  </si>
+  <si>
     <t>tomsom</t>
   </si>
   <si>
@@ -1145,7 +1177,7 @@
     <t>Brgy 9</t>
   </si>
   <si>
-    <t>0251B-0444</t>
+    <t>0251B-5987</t>
   </si>
   <si>
     <t>200112133022</t>
@@ -1160,6 +1192,12 @@
     <t>Q.</t>
   </si>
   <si>
+    <t>March 16, 2010</t>
+  </si>
+  <si>
+    <t>awefsd</t>
+  </si>
+  <si>
     <t>butterfly</t>
   </si>
   <si>
@@ -1187,10 +1225,10 @@
     <t>Brgy 10</t>
   </si>
   <si>
-    <t>0251B-0445</t>
-  </si>
-  <si>
-    <t>200112130293</t>
+    <t>0251B-6789</t>
+  </si>
+  <si>
+    <t>200112130567</t>
   </si>
   <si>
     <t>Tomai</t>
@@ -1202,6 +1240,12 @@
     <t>25</t>
   </si>
   <si>
+    <t>March 16, 2011</t>
+  </si>
+  <si>
+    <t>awefs</t>
+  </si>
+  <si>
     <t>bubuyog</t>
   </si>
   <si>
@@ -1322,9 +1366,6 @@
     <t>D.</t>
   </si>
   <si>
-    <t>Tagalog/English</t>
-  </si>
-  <si>
     <t>cotta</t>
   </si>
   <si>
@@ -1727,27 +1768,7 @@
     <t>200112139003</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Garc</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ia</t>
-    </r>
+    <t>Garcia</t>
   </si>
   <si>
     <t>Scarlett</t>
@@ -1801,9 +1822,6 @@
     <t>P.</t>
   </si>
   <si>
-    <t>april 9 1997</t>
-  </si>
-  <si>
     <t>mayon</t>
   </si>
   <si>
@@ -1826,22 +1844,208 @@
   </si>
   <si>
     <t>09734753453</t>
+  </si>
+  <si>
+    <t>January 23, 2006</t>
+  </si>
+  <si>
+    <t>January 23, 2007</t>
+  </si>
+  <si>
+    <t>January 23, 2008</t>
+  </si>
+  <si>
+    <t>January 23, 2009</t>
+  </si>
+  <si>
+    <t>January 23, 2010</t>
+  </si>
+  <si>
+    <t>adfa</t>
+  </si>
+  <si>
+    <t>lkjhgh</t>
+  </si>
+  <si>
+    <t>fard</t>
+  </si>
+  <si>
+    <t>fardse</t>
+  </si>
+  <si>
+    <t>ac@gmail.com</t>
+  </si>
+  <si>
+    <t>jems@gmail.com</t>
+  </si>
+  <si>
+    <t>reez@gmail.com</t>
+  </si>
+  <si>
+    <t>gars@gmail.com</t>
+  </si>
+  <si>
+    <t>casd@gmail.com</t>
+  </si>
+  <si>
+    <t>rads</t>
+  </si>
+  <si>
+    <t>weh</t>
+  </si>
+  <si>
+    <t>udj</t>
+  </si>
+  <si>
+    <t>dgs</t>
+  </si>
+  <si>
+    <t>degz</t>
+  </si>
+  <si>
+    <t>rat</t>
+  </si>
+  <si>
+    <t>cat</t>
+  </si>
+  <si>
+    <t>seer</t>
+  </si>
+  <si>
+    <t>zxcvbn</t>
+  </si>
+  <si>
+    <t>mnbbbb</t>
+  </si>
+  <si>
+    <t>kuyaako</t>
+  </si>
+  <si>
+    <t>seering</t>
+  </si>
+  <si>
+    <t>portugal</t>
+  </si>
+  <si>
+    <t>aynako</t>
+  </si>
+  <si>
+    <t>powpow</t>
+  </si>
+  <si>
+    <t>pingping</t>
+  </si>
+  <si>
+    <t>April 9, 1997</t>
+  </si>
+  <si>
+    <t>April 9, 1986</t>
+  </si>
+  <si>
+    <t>April 9, 1987</t>
+  </si>
+  <si>
+    <t>April 9, 1988</t>
+  </si>
+  <si>
+    <t>April 9, 1989</t>
+  </si>
+  <si>
+    <t>April 9, 1990</t>
+  </si>
+  <si>
+    <t>April 9, 1991</t>
+  </si>
+  <si>
+    <t>April 9, 1992</t>
+  </si>
+  <si>
+    <t>April 9, 1993</t>
+  </si>
+  <si>
+    <t>April 9, 1994</t>
+  </si>
+  <si>
+    <t>April 9, 1995</t>
+  </si>
+  <si>
+    <t>April 9, 1996</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>dan</t>
+  </si>
+  <si>
+    <t>ameame</t>
+  </si>
+  <si>
+    <t>dandan</t>
+  </si>
+  <si>
+    <t>cloeh</t>
+  </si>
+  <si>
+    <t>alea</t>
+  </si>
+  <si>
+    <t>finn</t>
+  </si>
+  <si>
+    <t>grac</t>
+  </si>
+  <si>
+    <t>hen</t>
+  </si>
+  <si>
+    <t>isa</t>
+  </si>
+  <si>
+    <t>scars</t>
+  </si>
+  <si>
+    <t>ursua</t>
+  </si>
+  <si>
+    <t>urusua</t>
+  </si>
+  <si>
+    <t>scarsss</t>
+  </si>
+  <si>
+    <t>ander</t>
+  </si>
+  <si>
+    <t>ander123</t>
+  </si>
+  <si>
+    <t>isarpo</t>
+  </si>
+  <si>
+    <t>henrysi</t>
+  </si>
+  <si>
+    <t>grakorts</t>
+  </si>
+  <si>
+    <t>finnland</t>
+  </si>
+  <si>
+    <t>altheris</t>
+  </si>
+  <si>
+    <t>dandandan</t>
+  </si>
+  <si>
+    <t>cloeh098</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="7">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;₱&quot;* #,##0_-;\-&quot;₱&quot;* #,##0_-;_-&quot;₱&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;₱&quot;* #,##0.00_-;\-&quot;₱&quot;* #,##0.00_-;_-&quot;₱&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="dd/mm/yyyy;@"/>
-    <numFmt numFmtId="177" formatCode="dd/mm/yy;@"/>
-    <numFmt numFmtId="178" formatCode="dd\-mmm\-yy"/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1868,7 +2072,6 @@
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1882,44 +2085,10 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="8"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1927,296 +2096,18 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -2224,330 +2115,44 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2832,19 +2437,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
@@ -2854,19 +2459,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2989,19 +2594,414 @@
         <v>38</v>
       </c>
     </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>234</v>
+      </c>
+      <c r="B10" t="s">
+        <v>233</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D10" t="s">
+        <v>611</v>
+      </c>
+      <c r="E10" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>250</v>
+      </c>
+      <c r="B11" t="s">
+        <v>249</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="D11" t="s">
+        <v>613</v>
+      </c>
+      <c r="E11" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>265</v>
+      </c>
+      <c r="B12" t="s">
+        <v>264</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="D12" t="s">
+        <v>620</v>
+      </c>
+      <c r="E12" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>279</v>
+      </c>
+      <c r="B13" t="s">
+        <v>278</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="D13" t="s">
+        <v>621</v>
+      </c>
+      <c r="E13" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>321</v>
+      </c>
+      <c r="B14" t="s">
+        <v>320</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="D14" t="s">
+        <v>625</v>
+      </c>
+      <c r="E14" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" t="s">
+        <v>339</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="D15" t="s">
+        <v>622</v>
+      </c>
+      <c r="E15" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>241</v>
+      </c>
+      <c r="B16" t="s">
+        <v>354</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>616</v>
+      </c>
+      <c r="D16" t="s">
+        <v>624</v>
+      </c>
+      <c r="E16" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>369</v>
+      </c>
+      <c r="B17" t="s">
+        <v>368</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>617</v>
+      </c>
+      <c r="D17" t="s">
+        <v>623</v>
+      </c>
+      <c r="E17" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>386</v>
+      </c>
+      <c r="B18" t="s">
+        <v>385</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>618</v>
+      </c>
+      <c r="D18" t="s">
+        <v>626</v>
+      </c>
+      <c r="E18" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>402</v>
+      </c>
+      <c r="B19" t="s">
+        <v>401</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>619</v>
+      </c>
+      <c r="D19" t="s">
+        <v>627</v>
+      </c>
+      <c r="E19" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>444</v>
+      </c>
+      <c r="B20" t="s">
+        <v>443</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="D20" t="s">
+        <v>649</v>
+      </c>
+      <c r="E20" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>460</v>
+      </c>
+      <c r="B21" t="s">
+        <v>459</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="D21" t="s">
+        <v>652</v>
+      </c>
+      <c r="E21" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.75">
+      <c r="A22" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="B22" t="s">
+        <v>474</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="D22" t="s">
+        <v>651</v>
+      </c>
+      <c r="E22" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>491</v>
+      </c>
+      <c r="B23" t="s">
+        <v>490</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="D23" t="s">
+        <v>653</v>
+      </c>
+      <c r="E23" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>507</v>
+      </c>
+      <c r="B24" t="s">
+        <v>506</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="D24" t="s">
+        <v>654</v>
+      </c>
+      <c r="E24" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>523</v>
+      </c>
+      <c r="B25" t="s">
+        <v>522</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="D25" t="s">
+        <v>655</v>
+      </c>
+      <c r="E25" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15.75">
+      <c r="A26" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="B26" t="s">
+        <v>538</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="D26" t="s">
+        <v>656</v>
+      </c>
+      <c r="E26" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>554</v>
+      </c>
+      <c r="B27" t="s">
+        <v>553</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="D27" t="s">
+        <v>657</v>
+      </c>
+      <c r="E27" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>568</v>
+      </c>
+      <c r="B28" t="s">
+        <v>567</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="D28" t="s">
+        <v>662</v>
+      </c>
+      <c r="E28" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>581</v>
+      </c>
+      <c r="B29" t="s">
+        <v>580</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="D29" t="s">
+        <v>658</v>
+      </c>
+      <c r="E29" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>596</v>
+      </c>
+      <c r="B30" t="s">
+        <v>595</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>599</v>
+      </c>
+      <c r="D30" t="s">
+        <v>659</v>
+      </c>
+      <c r="E30" t="s">
+        <v>660</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C10" r:id="rId1" xr:uid="{5F783535-C3E1-4622-A4DE-82B7E5525429}"/>
+    <hyperlink ref="C11" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="C12" r:id="rId3" xr:uid="{488B4926-415F-4B79-9A4C-252FF40DB524}"/>
+    <hyperlink ref="C13" r:id="rId4" xr:uid="{D1EB1526-BE9A-4705-909F-EAA01BAC3203}"/>
+    <hyperlink ref="C14" r:id="rId5" xr:uid="{CB4529F1-1DCC-4A00-85FA-AA176DB47099}"/>
+    <hyperlink ref="C15" r:id="rId6" xr:uid="{B58EB8CE-B7F2-40D0-8408-C98E7ED454B5}"/>
+    <hyperlink ref="C16" r:id="rId7" xr:uid="{B875F684-65E5-4E76-8BBE-59EDB9D9CC0D}"/>
+    <hyperlink ref="C17" r:id="rId8" xr:uid="{75CB35EB-F2D4-4D4A-9BD5-EBD75E4EB1E4}"/>
+    <hyperlink ref="C18" r:id="rId9" xr:uid="{EBCCF2DA-89B4-4459-B506-43B347980A59}"/>
+    <hyperlink ref="C19" r:id="rId10" xr:uid="{8B46707F-CC8F-4C0E-8D1D-472A3A76B9E6}"/>
+    <hyperlink ref="C20" r:id="rId11" xr:uid="{CA98CC6A-1ABA-4ED3-A33A-F236196C1A41}"/>
+    <hyperlink ref="C21" r:id="rId12" tooltip="mailto:chloe@gmail.com" xr:uid="{07343255-2AE3-4064-A353-F1E09CC5D716}"/>
+    <hyperlink ref="C22" r:id="rId13" tooltip="mailto:dan@gmail.com" xr:uid="{2B317143-E097-42D3-9523-00565392245B}"/>
+    <hyperlink ref="C23" r:id="rId14" tooltip="mailto:alea@gmail.com" xr:uid="{D665BF19-26CE-46B1-BCE7-0A100CA41170}"/>
+    <hyperlink ref="C24" r:id="rId15" tooltip="mailto:fin@gmail.com" xr:uid="{CAC82E2B-94A9-4A9F-BE06-6C2F2561C7E0}"/>
+    <hyperlink ref="C25" r:id="rId16" tooltip="mailto:grace@gmail.com" xr:uid="{73524CF9-EAA8-414F-B19E-13428460CB96}"/>
+    <hyperlink ref="C26" r:id="rId17" tooltip="mailto:henry@gmail.com" xr:uid="{403E34E1-2B15-4198-90CC-7CD7A3D8EF7C}"/>
+    <hyperlink ref="C27" r:id="rId18" tooltip="mailto:isablle@gmail.com" xr:uid="{C8344D96-F232-4576-B462-75780961CA0C}"/>
+    <hyperlink ref="C28" r:id="rId19" tooltip="mailto:leo@gmail.com" xr:uid="{21E37BA9-D4CF-42B8-A7CC-26DB90B50BE6}"/>
+    <hyperlink ref="C29" r:id="rId20" tooltip="mailto:scarl@gmail.com" xr:uid="{9BA71A2E-9AB5-4E4A-B9A6-6A816F96975F}"/>
+    <hyperlink ref="C30" r:id="rId21" tooltip="mailto:ursu@gmail.com" xr:uid="{8A94ED4A-6BCF-4DB3-B233-118BE05C1070}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BG10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="BG5" sqref="BG5:BG10"/>
+    <sheetView topLeftCell="AI1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Y8" sqref="Y8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -3062,160 +3062,160 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:59">
-      <c r="A1" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" s="9" t="s">
+      <c r="A1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="B1" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="C1" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="E1" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="F1" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="G1" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="I1" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="J1" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="K1" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="L1" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="M1" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="T1" s="9" t="s">
+      <c r="N1" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="U1" s="9" t="s">
+      <c r="O1" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="V1" s="9" t="s">
+      <c r="P1" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="W1" s="9" t="s">
+      <c r="R1" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="Y1" s="9" t="s">
+      <c r="S1" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB1" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC1" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD1" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE1" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="AG1" s="9" t="s">
+      <c r="Z1" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="AH1" s="9" t="s">
+      <c r="AB1" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="AI1" s="9" t="s">
+      <c r="AC1" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="AJ1" s="9" t="s">
+      <c r="AD1" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="AL1" s="9" t="s">
+      <c r="AE1" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="AM1" s="9" t="s">
+      <c r="AG1" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="AN1" s="9" t="s">
+      <c r="AH1" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="AO1" s="9" t="s">
+      <c r="AI1" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="AP1" s="9" t="s">
+      <c r="AJ1" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="AR1" s="9" t="s">
+      <c r="AL1" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="AS1" s="9" t="s">
+      <c r="AM1" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="AT1" s="9" t="s">
+      <c r="AN1" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="AV1" s="9" t="s">
+      <c r="AO1" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="AW1" s="9" t="s">
+      <c r="AP1" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="AX1" s="9" t="s">
+      <c r="AR1" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="AZ1" s="9" t="s">
+      <c r="AS1" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="BA1" s="9" t="s">
+      <c r="AT1" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="BB1" s="9" t="s">
+      <c r="AV1" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="BC1" s="9" t="s">
+      <c r="AW1" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="BE1" s="9" t="s">
+      <c r="AX1" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="BF1" s="9" t="s">
+      <c r="AZ1" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="BG1" s="9" t="s">
+      <c r="BA1" s="5" t="s">
         <v>85</v>
+      </c>
+      <c r="BB1" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="BC1" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="BE1" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="BF1" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="BG1" s="5" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:59">
       <c r="A2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -3224,129 +3224,129 @@
         <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="I2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="J2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="K2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="L2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="M2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="N2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="O2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="P2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="R2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="S2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="T2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="U2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="V2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="W2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="Y2" t="s">
         <v>11</v>
       </c>
       <c r="Z2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="AB2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="AC2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="AD2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="AE2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="AG2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>112</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AJ2" t="s">
         <v>106</v>
       </c>
-      <c r="AH2" t="s">
-        <v>107</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>105</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>101</v>
-      </c>
       <c r="AR2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="AS2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="AT2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="AV2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="AW2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="AX2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="AZ2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="BA2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="BB2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="BC2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="BE2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="BF2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="BG2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:55">
+    <row r="3" spans="1:59">
       <c r="A3" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B3" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C3" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E3" t="s">
         <v>15</v>
@@ -3355,120 +3355,120 @@
         <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="I3" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="J3" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="K3" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="L3" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="M3" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="N3" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="O3" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="P3" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="R3" t="s">
+        <v>131</v>
+      </c>
+      <c r="S3" t="s">
+        <v>132</v>
+      </c>
+      <c r="T3" t="s">
         <v>126</v>
       </c>
-      <c r="S3" t="s">
-        <v>127</v>
-      </c>
-      <c r="T3" t="s">
-        <v>121</v>
-      </c>
       <c r="U3" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="V3" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="W3" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="Y3" t="s">
         <v>16</v>
       </c>
       <c r="Z3" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="AB3" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="AC3" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="AD3" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AE3" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="AG3" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="AH3" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="AI3" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="AJ3" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AR3" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="AS3" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="AT3" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="AV3" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="AW3" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="AX3" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="AZ3" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="BA3" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="BB3" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="BC3" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:59">
       <c r="A4" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B4" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C4" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="E4" t="s">
         <v>20</v>
@@ -3477,144 +3477,144 @@
         <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="I4" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="J4" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="K4" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="L4" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="M4" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="N4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="O4" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="P4" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="R4" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="S4" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="T4" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="U4" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="V4" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="W4" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="Y4" t="s">
         <v>21</v>
       </c>
       <c r="Z4" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AB4" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="AC4" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="AD4" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="AE4" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="AG4" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="AH4" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="AI4" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="AJ4" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="AL4" t="s">
+        <v>169</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>170</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>171</v>
+      </c>
+      <c r="AO4" t="s">
         <v>164</v>
       </c>
-      <c r="AM4" t="s">
-        <v>165</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>166</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>159</v>
-      </c>
       <c r="AP4" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="AR4" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="AS4" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="AT4" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="AV4" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="AW4" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="AX4" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="AZ4" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="BA4" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="BB4" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="BC4" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="BE4" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="BF4" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="BG4" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:59">
       <c r="A5" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="B5" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C5" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="E5" t="s">
         <v>30</v>
@@ -3623,813 +3623,843 @@
         <v>29</v>
       </c>
       <c r="G5" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="I5" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="J5" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="K5" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="L5" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="M5" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="N5" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="O5" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="P5" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="R5" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="S5" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="T5" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="U5" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="V5" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="W5" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="Y5" t="s">
         <v>31</v>
       </c>
       <c r="Z5" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="AB5" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="AC5" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="AD5" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="AE5" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="AG5" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="AH5" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="AI5" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="AJ5" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="AL5" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="AM5" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="AN5" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="AO5" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="AP5" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="AR5" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="AS5" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="AT5" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="AV5" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="AW5" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="AX5" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="AZ5" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="BA5" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="BB5" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="BC5" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="BE5" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="BF5" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="BG5" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:59">
       <c r="A6" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="B6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>213</v>
+        <v>92</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>218</v>
       </c>
       <c r="E6" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="F6" t="s">
         <v>19</v>
       </c>
       <c r="G6" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="I6" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="J6" t="s">
-        <v>216</v>
-      </c>
-      <c r="K6" s="10">
-        <v>38376</v>
+        <v>221</v>
+      </c>
+      <c r="K6" t="s">
+        <v>606</v>
       </c>
       <c r="L6" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="M6" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="N6" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="O6" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="P6" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="R6" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="S6" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="T6" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="U6">
         <v>1285</v>
       </c>
       <c r="V6" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="W6" t="s">
-        <v>130</v>
-      </c>
-      <c r="Y6" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="Z6" s="12" t="s">
-        <v>218</v>
+        <v>135</v>
+      </c>
+      <c r="Y6" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="Z6" s="7" t="s">
+        <v>223</v>
       </c>
       <c r="AB6" t="s">
+        <v>219</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>193</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>194</v>
+      </c>
+      <c r="AE6" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>225</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>193</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>226</v>
+      </c>
+      <c r="AJ6" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>204</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>205</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>228</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>207</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>208</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>229</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>210</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>211</v>
+      </c>
+      <c r="BB6" t="s">
+        <v>212</v>
+      </c>
+      <c r="BC6" t="s">
+        <v>216</v>
+      </c>
+      <c r="BE6" t="s">
         <v>214</v>
       </c>
-      <c r="AC6" t="s">
-        <v>188</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>189</v>
-      </c>
-      <c r="AE6" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="AG6" t="s">
-        <v>220</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>188</v>
-      </c>
-      <c r="AI6" t="s">
-        <v>221</v>
-      </c>
-      <c r="AJ6" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="AR6" t="s">
-        <v>199</v>
-      </c>
-      <c r="AS6" t="s">
-        <v>200</v>
-      </c>
-      <c r="AT6" t="s">
-        <v>223</v>
-      </c>
-      <c r="AV6" t="s">
-        <v>202</v>
-      </c>
-      <c r="AW6" t="s">
-        <v>203</v>
-      </c>
-      <c r="AX6" t="s">
-        <v>224</v>
-      </c>
-      <c r="AZ6" t="s">
-        <v>205</v>
-      </c>
-      <c r="BA6" t="s">
-        <v>206</v>
-      </c>
-      <c r="BB6" t="s">
-        <v>207</v>
-      </c>
-      <c r="BC6" t="s">
-        <v>211</v>
-      </c>
-      <c r="BE6" t="s">
-        <v>209</v>
-      </c>
       <c r="BF6" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="BG6" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
     </row>
     <row r="7" spans="1:59">
       <c r="A7" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="B7" t="s">
-        <v>87</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>227</v>
+        <v>92</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>232</v>
       </c>
       <c r="E7" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="F7" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="G7" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="I7" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="J7" t="s">
-        <v>231</v>
-      </c>
-      <c r="K7" s="10">
-        <v>38429</v>
+        <v>236</v>
+      </c>
+      <c r="K7" t="s">
+        <v>607</v>
       </c>
       <c r="L7" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="M7" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="N7" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="O7" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="P7" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="R7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="S7" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="T7" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="U7">
         <v>1253</v>
       </c>
       <c r="V7" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="W7" t="s">
-        <v>130</v>
-      </c>
-      <c r="Y7" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="Z7" s="12" t="s">
-        <v>233</v>
+        <v>135</v>
+      </c>
+      <c r="Y7" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="Z7" s="7" t="s">
+        <v>238</v>
       </c>
       <c r="AB7" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="AC7" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="AD7" t="s">
-        <v>189</v>
-      </c>
-      <c r="AE7" s="12" t="s">
-        <v>235</v>
+        <v>194</v>
+      </c>
+      <c r="AE7" s="7" t="s">
+        <v>240</v>
       </c>
       <c r="AG7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="AH7" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="AI7" t="s">
-        <v>238</v>
-      </c>
-      <c r="AJ7" s="12" t="s">
-        <v>239</v>
+        <v>243</v>
+      </c>
+      <c r="AJ7" s="7" t="s">
+        <v>244</v>
       </c>
       <c r="AR7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="AS7" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="AT7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="AV7" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="AW7" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="AX7" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="AZ7" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="BA7" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="BB7" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="BC7" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="BE7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="BF7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="BG7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
     </row>
     <row r="8" spans="1:59">
       <c r="A8" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="B8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>243</v>
+        <v>92</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>248</v>
       </c>
       <c r="E8" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="F8" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="G8" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="I8" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="J8" t="s">
-        <v>247</v>
-      </c>
-      <c r="K8" s="10">
-        <v>38460</v>
+        <v>252</v>
+      </c>
+      <c r="K8" t="s">
+        <v>608</v>
       </c>
       <c r="L8" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="M8" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="N8" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="O8" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="P8" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="R8" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="S8" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="T8" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="U8">
         <v>3532</v>
       </c>
       <c r="V8" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="W8" t="s">
-        <v>130</v>
-      </c>
-      <c r="Y8" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="Z8" s="12" t="s">
-        <v>249</v>
+        <v>135</v>
+      </c>
+      <c r="Y8" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="Z8" s="7" t="s">
+        <v>254</v>
       </c>
       <c r="AB8" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="AC8" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="AD8" t="s">
-        <v>189</v>
-      </c>
-      <c r="AE8" s="12" t="s">
-        <v>251</v>
+        <v>194</v>
+      </c>
+      <c r="AE8" s="7" t="s">
+        <v>256</v>
       </c>
       <c r="AG8" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="AH8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="AI8" t="s">
-        <v>253</v>
-      </c>
-      <c r="AJ8" s="12" t="s">
-        <v>254</v>
+        <v>258</v>
+      </c>
+      <c r="AJ8" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>170</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>169</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>171</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>171</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>172</v>
       </c>
       <c r="AR8" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="AS8" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="AT8" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="AV8" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="AW8" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="AX8" t="s">
+        <v>216</v>
+      </c>
+      <c r="AZ8" t="s">
+        <v>210</v>
+      </c>
+      <c r="BA8" t="s">
         <v>211</v>
       </c>
-      <c r="AZ8" t="s">
-        <v>205</v>
-      </c>
-      <c r="BA8" t="s">
-        <v>206</v>
-      </c>
       <c r="BB8" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="BC8" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="BE8" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="BF8" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="BG8" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:59">
       <c r="A9" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="B9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>258</v>
+        <v>92</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>263</v>
       </c>
       <c r="E9" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="F9" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="G9" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="I9" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="J9" t="s">
-        <v>262</v>
-      </c>
-      <c r="K9" s="10">
-        <v>38515</v>
+        <v>267</v>
+      </c>
+      <c r="K9" t="s">
+        <v>609</v>
       </c>
       <c r="L9" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="M9" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="N9" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="O9" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="P9" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="R9" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="S9" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="T9" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="U9">
         <v>2347</v>
       </c>
       <c r="V9" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="W9" t="s">
-        <v>130</v>
-      </c>
-      <c r="Y9" s="11" t="s">
-        <v>263</v>
-      </c>
-      <c r="Z9" s="12" t="s">
-        <v>264</v>
+        <v>135</v>
+      </c>
+      <c r="Y9" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="Z9" s="7" t="s">
+        <v>269</v>
       </c>
       <c r="AB9" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="AC9" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="AD9" t="s">
-        <v>189</v>
-      </c>
-      <c r="AE9" s="12" t="s">
-        <v>266</v>
+        <v>194</v>
+      </c>
+      <c r="AE9" s="7" t="s">
+        <v>271</v>
       </c>
       <c r="AG9" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="AH9" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="AI9" t="s">
-        <v>192</v>
-      </c>
-      <c r="AJ9" s="12" t="s">
-        <v>268</v>
+        <v>197</v>
+      </c>
+      <c r="AJ9" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>200</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>199</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>201</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>201</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>203</v>
       </c>
       <c r="AR9" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="AS9" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="AT9" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="AV9" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="AW9" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="AX9" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="AZ9" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="BA9" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="BB9" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="BC9" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="BE9" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="BF9" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="BG9" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
     </row>
     <row r="10" spans="1:59">
       <c r="A10" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="B10" t="s">
-        <v>87</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>272</v>
+        <v>92</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>277</v>
       </c>
       <c r="E10" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="F10" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="G10" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="I10" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="J10" t="s">
-        <v>276</v>
-      </c>
-      <c r="K10" s="10">
-        <v>38423</v>
+        <v>281</v>
+      </c>
+      <c r="K10" t="s">
+        <v>610</v>
       </c>
       <c r="L10" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="M10" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="N10" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="O10" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="P10" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="R10" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="S10" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="T10" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="U10">
         <v>2386</v>
       </c>
       <c r="V10" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="W10" t="s">
-        <v>130</v>
-      </c>
-      <c r="Y10" s="11" t="s">
-        <v>277</v>
-      </c>
-      <c r="Z10" s="12" t="s">
-        <v>278</v>
+        <v>135</v>
+      </c>
+      <c r="Y10" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="Z10" s="7" t="s">
+        <v>283</v>
       </c>
       <c r="AB10" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="AC10" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="AD10" t="s">
-        <v>189</v>
-      </c>
-      <c r="AE10" s="12" t="s">
-        <v>280</v>
+        <v>194</v>
+      </c>
+      <c r="AE10" s="7" t="s">
+        <v>285</v>
       </c>
       <c r="AG10" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="AH10" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="AI10" t="s">
-        <v>221</v>
-      </c>
-      <c r="AJ10" s="12" t="s">
-        <v>282</v>
+        <v>226</v>
+      </c>
+      <c r="AJ10" s="7" t="s">
+        <v>287</v>
       </c>
       <c r="AR10" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="AS10" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="AT10" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="AV10" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="AW10" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="AX10" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="AZ10" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="BA10" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="BB10" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="BC10" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="BE10" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="BF10" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="BG10" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="Y6" r:id="rId1" display="ajsls@gmail.com"/>
-    <hyperlink ref="Y7" r:id="rId2" display="zed@gmail.com"/>
-    <hyperlink ref="Y8" r:id="rId3" display="albert6@gmail.com"/>
-    <hyperlink ref="Y9" r:id="rId4" display="renalyn@gmail.com"/>
-    <hyperlink ref="Y10" r:id="rId5" display="savie@gmail.com"/>
+    <hyperlink ref="Y6" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="Y7" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="Y9" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="Y10" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="Y8" r:id="rId5" xr:uid="{A59444B4-56F5-44F3-B122-4C0BC9980FA3}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId6"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:BG8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AW1" workbookViewId="0">
-      <selection activeCell="BC2" sqref="BC2:BC8"/>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="Y9" sqref="Y3:Y9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
@@ -4451,7 +4481,7 @@
     <col min="19" max="19" width="10" customWidth="1"/>
     <col min="20" max="20" width="9" customWidth="1"/>
     <col min="21" max="22" width="10" customWidth="1"/>
-    <col min="23" max="23" width="11.5714285714286" customWidth="1"/>
+    <col min="23" max="23" width="11.5703125" customWidth="1"/>
     <col min="24" max="24" width="2" customWidth="1"/>
     <col min="25" max="25" width="18" customWidth="1"/>
     <col min="26" max="26" width="16" customWidth="1"/>
@@ -4488,160 +4518,160 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:59">
-      <c r="A1" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" s="9" t="s">
+      <c r="A1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="B1" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="C1" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="E1" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="F1" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="G1" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="I1" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="J1" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="K1" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="L1" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="M1" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="T1" s="9" t="s">
+      <c r="N1" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="U1" s="9" t="s">
+      <c r="O1" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="V1" s="9" t="s">
+      <c r="P1" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="W1" s="9" t="s">
+      <c r="R1" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="Y1" s="9" t="s">
+      <c r="S1" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB1" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC1" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD1" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE1" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="AG1" s="9" t="s">
+      <c r="Z1" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="AH1" s="9" t="s">
+      <c r="AB1" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="AI1" s="9" t="s">
+      <c r="AC1" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="AJ1" s="9" t="s">
+      <c r="AD1" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="AL1" s="9" t="s">
+      <c r="AE1" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="AM1" s="9" t="s">
+      <c r="AG1" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="AN1" s="9" t="s">
+      <c r="AH1" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="AO1" s="9" t="s">
+      <c r="AI1" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="AP1" s="9" t="s">
+      <c r="AJ1" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="AR1" s="9" t="s">
+      <c r="AL1" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="AS1" s="9" t="s">
+      <c r="AM1" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="AT1" s="9" t="s">
+      <c r="AN1" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="AV1" s="9" t="s">
+      <c r="AO1" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="AW1" s="9" t="s">
+      <c r="AP1" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="AX1" s="9" t="s">
+      <c r="AR1" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="AZ1" s="9" t="s">
+      <c r="AS1" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="BA1" s="9" t="s">
+      <c r="AT1" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="BB1" s="9" t="s">
+      <c r="AV1" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="BC1" s="9" t="s">
+      <c r="AW1" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="BE1" s="9" t="s">
+      <c r="AX1" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="BF1" s="9" t="s">
+      <c r="AZ1" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="BG1" s="9" t="s">
+      <c r="BA1" s="5" t="s">
         <v>85</v>
       </c>
+      <c r="BB1" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="BC1" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="BE1" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="BF1" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="BG1" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
-    <row r="2" spans="1:55">
+    <row r="2" spans="1:59">
       <c r="A2" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="B2" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="C2" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -4650,860 +4680,862 @@
         <v>24</v>
       </c>
       <c r="G2" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="I2" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="J2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="K2" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="L2" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="M2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="N2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="O2" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="P2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="R2" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="S2" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="T2" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="U2" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="V2" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="W2" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="Y2" t="s">
         <v>26</v>
       </c>
       <c r="Z2" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="AB2" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="AC2" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="AD2" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="AE2" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="AG2" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="AH2" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="AI2" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="AJ2" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="AR2" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="AS2" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="AT2" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="AV2" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="AW2" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="AX2" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="AZ2" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="BA2" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="BB2" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="BC2" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
-    <row r="3" spans="1:55">
+    <row r="3" spans="1:59">
       <c r="A3" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="B3" t="s">
-        <v>286</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>314</v>
+        <v>291</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>319</v>
       </c>
       <c r="E3" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="F3" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="G3" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="I3" t="s">
-        <v>289</v>
+        <v>95</v>
       </c>
       <c r="J3" t="s">
-        <v>216</v>
-      </c>
-      <c r="K3" s="10">
-        <v>38436</v>
+        <v>221</v>
+      </c>
+      <c r="K3" t="s">
+        <v>323</v>
       </c>
       <c r="L3" t="s">
-        <v>291</v>
+        <v>324</v>
       </c>
       <c r="M3" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="N3" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="O3" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="P3" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="R3" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="S3" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="T3" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="U3">
         <v>4301</v>
       </c>
       <c r="V3" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="W3" t="s">
-        <v>130</v>
-      </c>
-      <c r="Y3" s="11" t="s">
-        <v>321</v>
-      </c>
-      <c r="Z3" s="12" t="s">
-        <v>322</v>
+        <v>135</v>
+      </c>
+      <c r="Y3" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="Z3" s="7" t="s">
+        <v>329</v>
       </c>
       <c r="AB3" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="AC3" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="AD3" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="AE3" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="AG3" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="AH3" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="AI3" t="s">
-        <v>327</v>
-      </c>
-      <c r="AJ3" s="12" t="s">
-        <v>328</v>
+        <v>334</v>
+      </c>
+      <c r="AJ3" s="7" t="s">
+        <v>335</v>
       </c>
       <c r="AR3" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="AS3" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="AT3" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="AV3" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="AW3" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="AX3" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="AZ3" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="BA3" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="BB3" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="BC3" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
     </row>
-    <row r="4" spans="1:55">
+    <row r="4" spans="1:59">
       <c r="A4" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="B4" t="s">
-        <v>286</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>331</v>
+        <v>291</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>338</v>
       </c>
       <c r="E4" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="F4" t="s">
         <v>32</v>
       </c>
       <c r="G4" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="I4" t="s">
-        <v>289</v>
+        <v>123</v>
       </c>
       <c r="J4" t="s">
-        <v>231</v>
-      </c>
-      <c r="K4" s="10">
-        <v>38446</v>
+        <v>236</v>
+      </c>
+      <c r="K4" t="s">
+        <v>341</v>
       </c>
       <c r="L4" t="s">
-        <v>291</v>
+        <v>342</v>
       </c>
       <c r="M4" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="N4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="O4" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="P4" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="R4" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="S4" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="T4" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="U4">
         <v>4652</v>
       </c>
       <c r="V4" t="s">
+        <v>134</v>
+      </c>
+      <c r="W4" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y4" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="Z4" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>346</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>331</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>347</v>
+      </c>
+      <c r="AE4" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>349</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>331</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>258</v>
+      </c>
+      <c r="AJ4" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>201</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>312</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>260</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>313</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>314</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>216</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>351</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>316</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>317</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="5" spans="1:59">
+      <c r="A5" t="s">
+        <v>352</v>
+      </c>
+      <c r="B5" t="s">
+        <v>291</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="E5" t="s">
+        <v>354</v>
+      </c>
+      <c r="F5" t="s">
+        <v>241</v>
+      </c>
+      <c r="G5" t="s">
+        <v>251</v>
+      </c>
+      <c r="I5" t="s">
+        <v>123</v>
+      </c>
+      <c r="J5" t="s">
+        <v>252</v>
+      </c>
+      <c r="K5" t="s">
+        <v>355</v>
+      </c>
+      <c r="L5" t="s">
+        <v>296</v>
+      </c>
+      <c r="M5" t="s">
+        <v>127</v>
+      </c>
+      <c r="N5" t="s">
+        <v>128</v>
+      </c>
+      <c r="O5" t="s">
         <v>129</v>
       </c>
-      <c r="W4" t="s">
+      <c r="P5" t="s">
         <v>130</v>
       </c>
-      <c r="Y4" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z4" s="12" t="s">
-        <v>336</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>337</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>324</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>338</v>
-      </c>
-      <c r="AE4" s="12" t="s">
-        <v>339</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>340</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>324</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>253</v>
-      </c>
-      <c r="AJ4" s="12" t="s">
-        <v>341</v>
-      </c>
-      <c r="AR4" t="s">
-        <v>196</v>
-      </c>
-      <c r="AS4" t="s">
-        <v>307</v>
-      </c>
-      <c r="AT4" t="s">
-        <v>255</v>
-      </c>
-      <c r="AV4" t="s">
-        <v>308</v>
-      </c>
-      <c r="AW4" t="s">
-        <v>309</v>
-      </c>
-      <c r="AX4" t="s">
-        <v>211</v>
-      </c>
-      <c r="AZ4" t="s">
-        <v>342</v>
-      </c>
-      <c r="BA4" t="s">
-        <v>311</v>
-      </c>
-      <c r="BB4" t="s">
-        <v>312</v>
-      </c>
-      <c r="BC4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="5" spans="1:55">
-      <c r="A5" t="s">
-        <v>343</v>
-      </c>
-      <c r="B5" t="s">
-        <v>286</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>344</v>
-      </c>
-      <c r="E5" t="s">
-        <v>345</v>
-      </c>
-      <c r="F5" t="s">
-        <v>236</v>
-      </c>
-      <c r="G5" t="s">
-        <v>246</v>
-      </c>
-      <c r="I5" t="s">
-        <v>289</v>
-      </c>
-      <c r="J5" t="s">
-        <v>247</v>
-      </c>
-      <c r="K5" s="10">
-        <v>38413</v>
-      </c>
-      <c r="L5" t="s">
-        <v>291</v>
-      </c>
-      <c r="M5" t="s">
-        <v>122</v>
-      </c>
-      <c r="N5" t="s">
-        <v>123</v>
-      </c>
-      <c r="O5" t="s">
-        <v>124</v>
-      </c>
-      <c r="P5" t="s">
-        <v>125</v>
-      </c>
       <c r="R5" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="S5" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="T5" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="U5">
         <v>1234</v>
       </c>
       <c r="V5" t="s">
+        <v>134</v>
+      </c>
+      <c r="W5" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y5" s="9" t="s">
+        <v>616</v>
+      </c>
+      <c r="Z5" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>360</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>331</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>334</v>
+      </c>
+      <c r="AE5" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>362</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>331</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>363</v>
+      </c>
+      <c r="AJ5" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>201</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>312</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>274</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>313</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>314</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>230</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>365</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>316</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>317</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="6" spans="1:59">
+      <c r="A6" t="s">
+        <v>366</v>
+      </c>
+      <c r="B6" t="s">
+        <v>291</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="E6" t="s">
+        <v>368</v>
+      </c>
+      <c r="F6" t="s">
+        <v>369</v>
+      </c>
+      <c r="G6" t="s">
+        <v>370</v>
+      </c>
+      <c r="I6" t="s">
+        <v>95</v>
+      </c>
+      <c r="J6" t="s">
+        <v>267</v>
+      </c>
+      <c r="K6" t="s">
+        <v>371</v>
+      </c>
+      <c r="L6" t="s">
+        <v>372</v>
+      </c>
+      <c r="M6" t="s">
+        <v>127</v>
+      </c>
+      <c r="N6" t="s">
+        <v>128</v>
+      </c>
+      <c r="O6" t="s">
         <v>129</v>
       </c>
-      <c r="W5" t="s">
+      <c r="P6" t="s">
         <v>130</v>
       </c>
-      <c r="Y5" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z5" s="12" t="s">
-        <v>349</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>350</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>324</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>327</v>
-      </c>
-      <c r="AE5" s="12" t="s">
-        <v>351</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>352</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>324</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>353</v>
-      </c>
-      <c r="AJ5" s="12" t="s">
-        <v>354</v>
-      </c>
-      <c r="AR5" t="s">
-        <v>196</v>
-      </c>
-      <c r="AS5" t="s">
-        <v>307</v>
-      </c>
-      <c r="AT5" t="s">
-        <v>269</v>
-      </c>
-      <c r="AV5" t="s">
-        <v>308</v>
-      </c>
-      <c r="AW5" t="s">
-        <v>309</v>
-      </c>
-      <c r="AX5" t="s">
-        <v>225</v>
-      </c>
-      <c r="AZ5" t="s">
-        <v>355</v>
-      </c>
-      <c r="BA5" t="s">
-        <v>311</v>
-      </c>
-      <c r="BB5" t="s">
-        <v>312</v>
-      </c>
-      <c r="BC5" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="6" spans="1:55">
-      <c r="A6" t="s">
-        <v>356</v>
-      </c>
-      <c r="B6" t="s">
-        <v>286</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>357</v>
-      </c>
-      <c r="E6" t="s">
-        <v>358</v>
-      </c>
-      <c r="F6" t="s">
-        <v>359</v>
-      </c>
-      <c r="G6" t="s">
-        <v>360</v>
-      </c>
-      <c r="I6" t="s">
-        <v>289</v>
-      </c>
-      <c r="J6" t="s">
-        <v>262</v>
-      </c>
-      <c r="K6" s="10">
-        <v>38518</v>
-      </c>
-      <c r="L6" t="s">
-        <v>291</v>
-      </c>
-      <c r="M6" t="s">
-        <v>122</v>
-      </c>
-      <c r="N6" t="s">
-        <v>123</v>
-      </c>
-      <c r="O6" t="s">
-        <v>124</v>
-      </c>
-      <c r="P6" t="s">
-        <v>125</v>
-      </c>
       <c r="R6" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
       <c r="S6" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
       <c r="T6" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="U6">
         <v>2522</v>
       </c>
       <c r="V6" t="s">
+        <v>134</v>
+      </c>
+      <c r="W6" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y6" s="9" t="s">
+        <v>617</v>
+      </c>
+      <c r="Z6" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>377</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>331</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>378</v>
+      </c>
+      <c r="AE6" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>380</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>331</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>334</v>
+      </c>
+      <c r="AJ6" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>201</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>312</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>288</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>313</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>314</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>246</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>382</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>316</v>
+      </c>
+      <c r="BB6" t="s">
+        <v>317</v>
+      </c>
+      <c r="BC6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="7" spans="1:59">
+      <c r="A7" t="s">
+        <v>383</v>
+      </c>
+      <c r="B7" t="s">
+        <v>291</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="E7" t="s">
+        <v>385</v>
+      </c>
+      <c r="F7" t="s">
+        <v>386</v>
+      </c>
+      <c r="G7" t="s">
+        <v>387</v>
+      </c>
+      <c r="I7" t="s">
+        <v>294</v>
+      </c>
+      <c r="J7" t="s">
+        <v>281</v>
+      </c>
+      <c r="K7" t="s">
+        <v>388</v>
+      </c>
+      <c r="L7" t="s">
+        <v>389</v>
+      </c>
+      <c r="M7" t="s">
+        <v>127</v>
+      </c>
+      <c r="N7" t="s">
+        <v>128</v>
+      </c>
+      <c r="O7" t="s">
         <v>129</v>
       </c>
-      <c r="W6" t="s">
+      <c r="P7" t="s">
         <v>130</v>
       </c>
-      <c r="Y6" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z6" s="12" t="s">
-        <v>364</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>365</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>324</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>366</v>
-      </c>
-      <c r="AE6" s="12" t="s">
-        <v>367</v>
-      </c>
-      <c r="AG6" t="s">
-        <v>368</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>324</v>
-      </c>
-      <c r="AI6" t="s">
-        <v>327</v>
-      </c>
-      <c r="AJ6" s="12" t="s">
-        <v>369</v>
-      </c>
-      <c r="AR6" t="s">
-        <v>196</v>
-      </c>
-      <c r="AS6" t="s">
-        <v>307</v>
-      </c>
-      <c r="AT6" t="s">
-        <v>283</v>
-      </c>
-      <c r="AV6" t="s">
-        <v>308</v>
-      </c>
-      <c r="AW6" t="s">
-        <v>309</v>
-      </c>
-      <c r="AX6" t="s">
-        <v>241</v>
-      </c>
-      <c r="AZ6" t="s">
-        <v>370</v>
-      </c>
-      <c r="BA6" t="s">
-        <v>311</v>
-      </c>
-      <c r="BB6" t="s">
-        <v>312</v>
-      </c>
-      <c r="BC6" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="7" spans="1:55">
-      <c r="A7" t="s">
-        <v>371</v>
-      </c>
-      <c r="B7" t="s">
-        <v>286</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>372</v>
-      </c>
-      <c r="E7" t="s">
-        <v>373</v>
-      </c>
-      <c r="F7" t="s">
-        <v>374</v>
-      </c>
-      <c r="G7" t="s">
-        <v>375</v>
-      </c>
-      <c r="I7" t="s">
-        <v>289</v>
-      </c>
-      <c r="J7" t="s">
-        <v>276</v>
-      </c>
-      <c r="K7" s="10">
-        <v>38479</v>
-      </c>
-      <c r="L7" t="s">
-        <v>291</v>
-      </c>
-      <c r="M7" t="s">
-        <v>122</v>
-      </c>
-      <c r="N7" t="s">
-        <v>123</v>
-      </c>
-      <c r="O7" t="s">
-        <v>124</v>
-      </c>
-      <c r="P7" t="s">
-        <v>125</v>
-      </c>
       <c r="R7" t="s">
-        <v>376</v>
+        <v>390</v>
       </c>
       <c r="S7" t="s">
-        <v>377</v>
+        <v>391</v>
       </c>
       <c r="T7" t="s">
-        <v>378</v>
+        <v>392</v>
       </c>
       <c r="U7">
         <v>1234</v>
       </c>
       <c r="V7" t="s">
+        <v>134</v>
+      </c>
+      <c r="W7" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y7" s="9" t="s">
+        <v>618</v>
+      </c>
+      <c r="Z7" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>394</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>331</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>347</v>
+      </c>
+      <c r="AE7" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>396</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>331</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>347</v>
+      </c>
+      <c r="AJ7" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>201</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>312</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>209</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>313</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>314</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>261</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>398</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>316</v>
+      </c>
+      <c r="BB7" t="s">
+        <v>317</v>
+      </c>
+      <c r="BC7" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="8" spans="1:59">
+      <c r="A8" t="s">
+        <v>399</v>
+      </c>
+      <c r="B8" t="s">
+        <v>291</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="E8" t="s">
+        <v>401</v>
+      </c>
+      <c r="F8" t="s">
+        <v>402</v>
+      </c>
+      <c r="G8" t="s">
+        <v>122</v>
+      </c>
+      <c r="I8" t="s">
+        <v>123</v>
+      </c>
+      <c r="J8" t="s">
+        <v>403</v>
+      </c>
+      <c r="K8" t="s">
+        <v>404</v>
+      </c>
+      <c r="L8" t="s">
+        <v>405</v>
+      </c>
+      <c r="M8" t="s">
+        <v>127</v>
+      </c>
+      <c r="N8" t="s">
+        <v>128</v>
+      </c>
+      <c r="O8" t="s">
         <v>129</v>
       </c>
-      <c r="W7" t="s">
+      <c r="P8" t="s">
         <v>130</v>
       </c>
-      <c r="Y7" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z7" s="12" t="s">
-        <v>379</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>380</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>324</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>338</v>
-      </c>
-      <c r="AE7" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="AG7" t="s">
-        <v>382</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>324</v>
-      </c>
-      <c r="AI7" t="s">
-        <v>338</v>
-      </c>
-      <c r="AJ7" s="12" t="s">
-        <v>383</v>
-      </c>
-      <c r="AR7" t="s">
-        <v>196</v>
-      </c>
-      <c r="AS7" t="s">
-        <v>307</v>
-      </c>
-      <c r="AT7" t="s">
-        <v>204</v>
-      </c>
-      <c r="AV7" t="s">
-        <v>308</v>
-      </c>
-      <c r="AW7" t="s">
-        <v>309</v>
-      </c>
-      <c r="AX7" t="s">
-        <v>256</v>
-      </c>
-      <c r="AZ7" t="s">
-        <v>384</v>
-      </c>
-      <c r="BA7" t="s">
-        <v>311</v>
-      </c>
-      <c r="BB7" t="s">
-        <v>312</v>
-      </c>
-      <c r="BC7" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="8" spans="1:55">
-      <c r="A8" t="s">
-        <v>385</v>
-      </c>
-      <c r="B8" t="s">
-        <v>286</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>386</v>
-      </c>
-      <c r="E8" t="s">
-        <v>387</v>
-      </c>
-      <c r="F8" t="s">
-        <v>388</v>
-      </c>
-      <c r="G8" t="s">
-        <v>117</v>
-      </c>
-      <c r="I8" t="s">
-        <v>289</v>
-      </c>
-      <c r="J8" t="s">
-        <v>389</v>
-      </c>
-      <c r="K8" s="10">
-        <v>38481</v>
-      </c>
-      <c r="L8" t="s">
-        <v>291</v>
-      </c>
-      <c r="M8" t="s">
-        <v>122</v>
-      </c>
-      <c r="N8" t="s">
-        <v>123</v>
-      </c>
-      <c r="O8" t="s">
-        <v>124</v>
-      </c>
-      <c r="P8" t="s">
-        <v>125</v>
-      </c>
       <c r="R8" t="s">
-        <v>390</v>
+        <v>406</v>
       </c>
       <c r="S8" t="s">
-        <v>391</v>
+        <v>407</v>
       </c>
       <c r="T8" t="s">
-        <v>392</v>
+        <v>408</v>
       </c>
       <c r="U8">
         <v>1223</v>
       </c>
       <c r="V8" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="W8" t="s">
-        <v>130</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z8" s="12" t="s">
-        <v>393</v>
+        <v>135</v>
+      </c>
+      <c r="Y8" s="9" t="s">
+        <v>619</v>
+      </c>
+      <c r="Z8" s="7" t="s">
+        <v>409</v>
       </c>
       <c r="AB8" t="s">
-        <v>380</v>
+        <v>394</v>
       </c>
       <c r="AC8" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="AD8" t="s">
-        <v>338</v>
-      </c>
-      <c r="AE8" s="12" t="s">
-        <v>394</v>
+        <v>347</v>
+      </c>
+      <c r="AE8" s="7" t="s">
+        <v>410</v>
       </c>
       <c r="AG8" t="s">
-        <v>395</v>
+        <v>411</v>
       </c>
       <c r="AH8" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="AI8" t="s">
-        <v>338</v>
-      </c>
-      <c r="AJ8" s="12" t="s">
-        <v>396</v>
+        <v>347</v>
+      </c>
+      <c r="AJ8" s="7" t="s">
+        <v>412</v>
       </c>
       <c r="AR8" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="AS8" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="AT8" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="AV8" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="AW8" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="AX8" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="AZ8" t="s">
-        <v>397</v>
+        <v>413</v>
       </c>
       <c r="BA8" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="BB8" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="BC8" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="Y3" r:id="rId1" display="aw@gmail.com"/>
-    <hyperlink ref="Y4" r:id="rId2" display="macmac@gmail.com"/>
+    <hyperlink ref="Y3" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="Y4" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="Y5" r:id="rId3" xr:uid="{89ACA334-3985-44BB-B049-64334276CED6}"/>
+    <hyperlink ref="Y6" r:id="rId4" xr:uid="{8B96E73B-F72C-4298-86B7-BBB734ECFE43}"/>
+    <hyperlink ref="Y7" r:id="rId5" xr:uid="{37A6B1AE-6955-4A7F-A4A9-3C788C97D938}"/>
+    <hyperlink ref="Y8" r:id="rId6" xr:uid="{3BE7C07B-215C-4729-8CC1-29FF7959038B}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:BG14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="BG12" sqref="BG12"/>
+    <sheetView topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="Y14" sqref="Y3:Y14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -5512,7 +5544,7 @@
     <col min="2" max="2" width="16" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="2" customWidth="1"/>
-    <col min="5" max="5" width="10.4285714285714" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
     <col min="8" max="8" width="2" customWidth="1"/>
@@ -5525,13 +5557,13 @@
     <col min="15" max="15" width="16" customWidth="1"/>
     <col min="16" max="16" width="17" customWidth="1"/>
     <col min="17" max="17" width="2" customWidth="1"/>
-    <col min="18" max="18" width="9.85714285714286" customWidth="1"/>
+    <col min="18" max="18" width="9.85546875" customWidth="1"/>
     <col min="19" max="19" width="10" customWidth="1"/>
-    <col min="20" max="20" width="7.85714285714286" customWidth="1"/>
+    <col min="20" max="20" width="7.85546875" customWidth="1"/>
     <col min="21" max="22" width="10" customWidth="1"/>
-    <col min="23" max="23" width="10.7142857142857" customWidth="1"/>
-    <col min="24" max="24" width="1.14285714285714" customWidth="1"/>
-    <col min="25" max="25" width="17.8571428571429" customWidth="1"/>
+    <col min="23" max="23" width="10.7109375" customWidth="1"/>
+    <col min="24" max="24" width="1.140625" customWidth="1"/>
+    <col min="25" max="25" width="17.85546875" customWidth="1"/>
     <col min="26" max="26" width="16" customWidth="1"/>
     <col min="27" max="27" width="2" customWidth="1"/>
     <col min="28" max="28" width="15" customWidth="1"/>
@@ -5567,159 +5599,159 @@
   <sheetData>
     <row r="1" spans="1:59">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:55">
+    <row r="2" spans="1:59">
       <c r="A2" t="s">
-        <v>398</v>
+        <v>414</v>
       </c>
       <c r="B2" t="s">
-        <v>399</v>
+        <v>415</v>
       </c>
       <c r="C2" t="s">
-        <v>400</v>
+        <v>416</v>
       </c>
       <c r="E2" t="s">
         <v>35</v>
@@ -5728,1500 +5760,1500 @@
         <v>34</v>
       </c>
       <c r="G2" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="I2" t="s">
-        <v>289</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>401</v>
-      </c>
-      <c r="K2" s="5">
-        <v>30750</v>
+        <v>294</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>637</v>
       </c>
       <c r="L2" t="s">
-        <v>402</v>
+        <v>418</v>
       </c>
       <c r="M2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="N2" t="s">
-        <v>403</v>
+        <v>419</v>
       </c>
       <c r="O2" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="P2" t="s">
-        <v>404</v>
+        <v>420</v>
       </c>
       <c r="R2" t="s">
-        <v>405</v>
+        <v>421</v>
       </c>
       <c r="S2" t="s">
-        <v>406</v>
+        <v>422</v>
       </c>
       <c r="T2" t="s">
-        <v>407</v>
+        <v>423</v>
       </c>
       <c r="U2">
         <v>1243</v>
       </c>
       <c r="V2" t="s">
-        <v>408</v>
+        <v>424</v>
       </c>
       <c r="W2" t="s">
-        <v>409</v>
+        <v>425</v>
       </c>
       <c r="Y2" t="s">
         <v>36</v>
       </c>
       <c r="Z2" t="s">
-        <v>410</v>
+        <v>426</v>
       </c>
       <c r="AB2" t="s">
-        <v>411</v>
+        <v>427</v>
       </c>
       <c r="AC2" t="s">
-        <v>412</v>
+        <v>428</v>
       </c>
       <c r="AD2" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="AE2" t="s">
-        <v>413</v>
+        <v>429</v>
       </c>
       <c r="AG2" t="s">
-        <v>414</v>
+        <v>430</v>
       </c>
       <c r="AH2" t="s">
-        <v>415</v>
+        <v>431</v>
       </c>
       <c r="AI2" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="AJ2" t="s">
-        <v>416</v>
+        <v>432</v>
       </c>
       <c r="AR2" t="s">
-        <v>417</v>
+        <v>433</v>
       </c>
       <c r="AS2" t="s">
-        <v>418</v>
+        <v>434</v>
       </c>
       <c r="AT2" t="s">
-        <v>419</v>
+        <v>435</v>
       </c>
       <c r="AV2" t="s">
-        <v>420</v>
+        <v>436</v>
       </c>
       <c r="AW2" t="s">
-        <v>421</v>
+        <v>437</v>
       </c>
       <c r="AX2" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="AZ2" t="s">
-        <v>422</v>
+        <v>438</v>
       </c>
       <c r="BA2" t="s">
-        <v>423</v>
+        <v>439</v>
       </c>
       <c r="BB2" t="s">
-        <v>424</v>
+        <v>440</v>
       </c>
       <c r="BC2">
         <v>2012</v>
       </c>
     </row>
-    <row r="3" spans="1:55">
+    <row r="3" spans="1:59">
       <c r="A3" t="s">
-        <v>425</v>
+        <v>441</v>
       </c>
       <c r="B3" t="s">
-        <v>399</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>426</v>
+        <v>415</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>442</v>
       </c>
       <c r="E3" t="s">
-        <v>427</v>
+        <v>443</v>
       </c>
       <c r="F3" t="s">
-        <v>428</v>
+        <v>444</v>
       </c>
       <c r="G3" t="s">
-        <v>429</v>
+        <v>445</v>
       </c>
       <c r="I3" t="s">
-        <v>118</v>
-      </c>
-      <c r="J3" s="4">
+        <v>123</v>
+      </c>
+      <c r="J3" s="3">
         <v>19</v>
       </c>
-      <c r="K3" s="6">
-        <v>38691</v>
+      <c r="K3" s="10" t="s">
+        <v>638</v>
       </c>
       <c r="L3" t="s">
+        <v>134</v>
+      </c>
+      <c r="M3" t="s">
+        <v>127</v>
+      </c>
+      <c r="N3" t="s">
+        <v>419</v>
+      </c>
+      <c r="O3" t="s">
         <v>129</v>
       </c>
-      <c r="M3" t="s">
-        <v>122</v>
-      </c>
-      <c r="N3" t="s">
-        <v>403</v>
-      </c>
-      <c r="O3" t="s">
-        <v>124</v>
-      </c>
       <c r="P3" t="s">
-        <v>430</v>
+        <v>648</v>
       </c>
       <c r="R3" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="S3" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="T3" t="s">
-        <v>432</v>
+        <v>447</v>
       </c>
       <c r="U3">
         <v>4301</v>
       </c>
       <c r="V3" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="W3" t="s">
-        <v>130</v>
-      </c>
-      <c r="Y3" s="8" t="s">
-        <v>433</v>
-      </c>
-      <c r="Z3" s="12" t="s">
-        <v>434</v>
+        <v>135</v>
+      </c>
+      <c r="Y3" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="Z3" s="7" t="s">
+        <v>449</v>
       </c>
       <c r="AB3" t="s">
-        <v>435</v>
+        <v>450</v>
       </c>
       <c r="AC3" t="s">
-        <v>436</v>
+        <v>451</v>
       </c>
       <c r="AD3" t="s">
-        <v>437</v>
-      </c>
-      <c r="AE3" s="12" t="s">
-        <v>438</v>
+        <v>452</v>
+      </c>
+      <c r="AE3" s="7" t="s">
+        <v>453</v>
       </c>
       <c r="AG3" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="AH3" t="s">
-        <v>378</v>
+        <v>392</v>
       </c>
       <c r="AI3" t="s">
-        <v>353</v>
-      </c>
-      <c r="AJ3" s="12" t="s">
-        <v>439</v>
+        <v>363</v>
+      </c>
+      <c r="AJ3" s="7" t="s">
+        <v>454</v>
       </c>
       <c r="AR3" t="s">
-        <v>378</v>
+        <v>392</v>
       </c>
       <c r="AS3" t="s">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="AT3">
         <v>2018</v>
       </c>
       <c r="AV3" t="s">
-        <v>420</v>
+        <v>436</v>
       </c>
       <c r="AW3" t="s">
-        <v>421</v>
+        <v>437</v>
       </c>
       <c r="AX3" t="s">
-        <v>441</v>
+        <v>456</v>
       </c>
       <c r="AZ3" t="s">
-        <v>422</v>
+        <v>438</v>
       </c>
       <c r="BA3" t="s">
-        <v>423</v>
+        <v>439</v>
       </c>
       <c r="BB3" t="s">
-        <v>424</v>
+        <v>440</v>
       </c>
       <c r="BC3">
         <v>2013</v>
       </c>
     </row>
-    <row r="4" spans="1:55">
+    <row r="4" spans="1:59">
       <c r="A4" t="s">
-        <v>442</v>
+        <v>457</v>
       </c>
       <c r="B4" t="s">
-        <v>399</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>443</v>
+        <v>415</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>458</v>
       </c>
       <c r="E4" t="s">
-        <v>444</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>445</v>
+        <v>459</v>
+      </c>
+      <c r="F4" t="s">
+        <v>460</v>
       </c>
       <c r="G4" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="I4" t="s">
-        <v>118</v>
-      </c>
-      <c r="J4" s="4">
+        <v>123</v>
+      </c>
+      <c r="J4" s="3">
         <v>20</v>
       </c>
-      <c r="K4" s="6">
-        <v>38259</v>
+      <c r="K4" s="10" t="s">
+        <v>639</v>
       </c>
       <c r="L4" t="s">
-        <v>446</v>
+        <v>461</v>
       </c>
       <c r="M4" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="N4" t="s">
-        <v>403</v>
+        <v>419</v>
       </c>
       <c r="O4" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="P4" t="s">
-        <v>430</v>
+        <v>648</v>
       </c>
       <c r="R4" t="s">
+        <v>462</v>
+      </c>
+      <c r="S4" t="s">
+        <v>331</v>
+      </c>
+      <c r="T4" t="s">
         <v>447</v>
-      </c>
-      <c r="S4" t="s">
-        <v>324</v>
-      </c>
-      <c r="T4" t="s">
-        <v>432</v>
       </c>
       <c r="U4">
         <v>4302</v>
       </c>
       <c r="V4" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="W4" t="s">
-        <v>130</v>
-      </c>
-      <c r="Y4" s="8" t="s">
-        <v>448</v>
-      </c>
-      <c r="Z4" s="12" t="s">
-        <v>449</v>
+        <v>135</v>
+      </c>
+      <c r="Y4" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="Z4" s="7" t="s">
+        <v>464</v>
       </c>
       <c r="AB4" t="s">
-        <v>450</v>
+        <v>465</v>
       </c>
       <c r="AC4" t="s">
-        <v>451</v>
+        <v>466</v>
       </c>
       <c r="AD4" t="s">
-        <v>159</v>
-      </c>
-      <c r="AE4" s="12" t="s">
-        <v>452</v>
+        <v>164</v>
+      </c>
+      <c r="AE4" s="7" t="s">
+        <v>467</v>
       </c>
       <c r="AG4" t="s">
-        <v>453</v>
+        <v>468</v>
       </c>
       <c r="AH4" t="s">
-        <v>454</v>
+        <v>469</v>
       </c>
       <c r="AI4" t="s">
-        <v>327</v>
-      </c>
-      <c r="AJ4" s="12" t="s">
-        <v>455</v>
+        <v>334</v>
+      </c>
+      <c r="AJ4" s="7" t="s">
+        <v>470</v>
       </c>
       <c r="AR4" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="AS4" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="AT4">
         <v>2013</v>
       </c>
       <c r="AV4" t="s">
-        <v>420</v>
+        <v>436</v>
       </c>
       <c r="AW4" t="s">
-        <v>421</v>
+        <v>437</v>
       </c>
       <c r="AX4" t="s">
-        <v>456</v>
+        <v>471</v>
       </c>
       <c r="AZ4" t="s">
-        <v>422</v>
+        <v>438</v>
       </c>
       <c r="BA4" t="s">
-        <v>423</v>
+        <v>439</v>
       </c>
       <c r="BB4" t="s">
-        <v>424</v>
+        <v>440</v>
       </c>
       <c r="BC4">
         <v>2014</v>
       </c>
     </row>
-    <row r="5" ht="15.75" spans="1:55">
+    <row r="5" spans="1:59" ht="15.75" customHeight="1">
       <c r="A5" t="s">
-        <v>457</v>
+        <v>472</v>
       </c>
       <c r="B5" t="s">
-        <v>399</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>458</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>460</v>
+        <v>415</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="E5" t="s">
+        <v>474</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>475</v>
       </c>
       <c r="G5" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="I5" t="s">
-        <v>90</v>
-      </c>
-      <c r="J5" s="4">
+        <v>95</v>
+      </c>
+      <c r="J5" s="3">
         <v>23</v>
       </c>
-      <c r="K5" s="6">
-        <v>36960</v>
+      <c r="K5" s="10" t="s">
+        <v>640</v>
       </c>
       <c r="L5" t="s">
-        <v>461</v>
+        <v>476</v>
       </c>
       <c r="M5" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="N5" t="s">
-        <v>403</v>
+        <v>419</v>
       </c>
       <c r="O5" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="P5" t="s">
-        <v>430</v>
+        <v>648</v>
       </c>
       <c r="R5" t="s">
-        <v>462</v>
+        <v>477</v>
       </c>
       <c r="S5" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="T5" t="s">
-        <v>432</v>
+        <v>447</v>
       </c>
       <c r="U5">
         <v>4303</v>
       </c>
       <c r="V5" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="W5" t="s">
-        <v>130</v>
-      </c>
-      <c r="Y5" s="8" t="s">
-        <v>463</v>
-      </c>
-      <c r="Z5" s="12" t="s">
-        <v>464</v>
+        <v>135</v>
+      </c>
+      <c r="Y5" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="Z5" s="7" t="s">
+        <v>479</v>
       </c>
       <c r="AB5" t="s">
-        <v>465</v>
+        <v>480</v>
       </c>
       <c r="AC5" t="s">
-        <v>466</v>
+        <v>481</v>
       </c>
       <c r="AD5" t="s">
-        <v>467</v>
-      </c>
-      <c r="AE5" s="12" t="s">
-        <v>468</v>
+        <v>482</v>
+      </c>
+      <c r="AE5" s="7" t="s">
+        <v>483</v>
       </c>
       <c r="AG5" t="s">
-        <v>469</v>
+        <v>484</v>
       </c>
       <c r="AH5" t="s">
-        <v>470</v>
+        <v>485</v>
       </c>
       <c r="AI5" t="s">
-        <v>338</v>
-      </c>
-      <c r="AJ5" s="12" t="s">
-        <v>471</v>
+        <v>347</v>
+      </c>
+      <c r="AJ5" s="7" t="s">
+        <v>486</v>
       </c>
       <c r="AR5" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="AS5" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="AT5">
         <v>2015</v>
       </c>
       <c r="AV5" t="s">
-        <v>420</v>
+        <v>436</v>
       </c>
       <c r="AW5" t="s">
-        <v>421</v>
+        <v>437</v>
       </c>
       <c r="AX5" t="s">
-        <v>472</v>
+        <v>487</v>
       </c>
       <c r="AZ5" t="s">
-        <v>422</v>
+        <v>438</v>
       </c>
       <c r="BA5" t="s">
-        <v>423</v>
+        <v>439</v>
       </c>
       <c r="BB5" t="s">
-        <v>424</v>
+        <v>440</v>
       </c>
       <c r="BC5">
         <v>2015</v>
       </c>
     </row>
-    <row r="6" spans="1:55">
+    <row r="6" spans="1:59">
       <c r="A6" t="s">
-        <v>473</v>
+        <v>488</v>
       </c>
       <c r="B6" t="s">
-        <v>399</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>474</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>476</v>
+        <v>415</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="E6" t="s">
+        <v>490</v>
+      </c>
+      <c r="F6" t="s">
+        <v>491</v>
       </c>
       <c r="G6" t="s">
-        <v>429</v>
+        <v>445</v>
       </c>
       <c r="I6" t="s">
-        <v>90</v>
-      </c>
-      <c r="J6" s="4">
+        <v>95</v>
+      </c>
+      <c r="J6" s="3">
         <v>24</v>
       </c>
-      <c r="K6" s="6">
-        <v>36574</v>
+      <c r="K6" s="10" t="s">
+        <v>641</v>
       </c>
       <c r="L6" t="s">
+        <v>134</v>
+      </c>
+      <c r="M6" t="s">
+        <v>127</v>
+      </c>
+      <c r="N6" t="s">
+        <v>419</v>
+      </c>
+      <c r="O6" t="s">
         <v>129</v>
       </c>
-      <c r="M6" t="s">
-        <v>122</v>
-      </c>
-      <c r="N6" t="s">
-        <v>403</v>
-      </c>
-      <c r="O6" t="s">
-        <v>124</v>
-      </c>
       <c r="P6" t="s">
-        <v>430</v>
+        <v>648</v>
       </c>
       <c r="R6" t="s">
-        <v>477</v>
+        <v>492</v>
       </c>
       <c r="S6" t="s">
-        <v>478</v>
+        <v>493</v>
       </c>
       <c r="T6" t="s">
-        <v>432</v>
+        <v>447</v>
       </c>
       <c r="U6">
         <v>4304</v>
       </c>
       <c r="V6" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="W6" t="s">
-        <v>130</v>
-      </c>
-      <c r="Y6" s="8" t="s">
-        <v>479</v>
-      </c>
-      <c r="Z6" s="12" t="s">
-        <v>480</v>
+        <v>135</v>
+      </c>
+      <c r="Y6" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="Z6" s="7" t="s">
+        <v>495</v>
       </c>
       <c r="AB6" t="s">
-        <v>481</v>
+        <v>496</v>
       </c>
       <c r="AC6" t="s">
-        <v>482</v>
+        <v>497</v>
       </c>
       <c r="AD6" t="s">
-        <v>327</v>
-      </c>
-      <c r="AE6" s="12" t="s">
-        <v>483</v>
+        <v>334</v>
+      </c>
+      <c r="AE6" s="7" t="s">
+        <v>498</v>
       </c>
       <c r="AG6" t="s">
-        <v>484</v>
+        <v>499</v>
       </c>
       <c r="AH6" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="AI6" t="s">
-        <v>485</v>
-      </c>
-      <c r="AJ6" s="12" t="s">
-        <v>486</v>
+        <v>500</v>
+      </c>
+      <c r="AJ6" s="7" t="s">
+        <v>501</v>
       </c>
       <c r="AR6" t="s">
-        <v>487</v>
+        <v>502</v>
       </c>
       <c r="AS6" t="s">
-        <v>487</v>
+        <v>502</v>
       </c>
       <c r="AT6">
         <v>2016</v>
       </c>
       <c r="AV6" t="s">
-        <v>420</v>
+        <v>436</v>
       </c>
       <c r="AW6" t="s">
-        <v>421</v>
+        <v>437</v>
       </c>
       <c r="AX6" t="s">
-        <v>488</v>
+        <v>503</v>
       </c>
       <c r="AZ6" t="s">
-        <v>422</v>
+        <v>438</v>
       </c>
       <c r="BA6" t="s">
-        <v>423</v>
+        <v>439</v>
       </c>
       <c r="BB6" t="s">
-        <v>424</v>
+        <v>440</v>
       </c>
       <c r="BC6">
         <v>2016</v>
       </c>
     </row>
-    <row r="7" spans="1:55">
+    <row r="7" spans="1:59">
       <c r="A7" t="s">
-        <v>489</v>
+        <v>504</v>
       </c>
       <c r="B7" t="s">
-        <v>399</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>490</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>492</v>
+        <v>415</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="E7" t="s">
+        <v>506</v>
+      </c>
+      <c r="F7" t="s">
+        <v>507</v>
       </c>
       <c r="G7" t="s">
+        <v>508</v>
+      </c>
+      <c r="I7" t="s">
+        <v>95</v>
+      </c>
+      <c r="J7" s="3">
+        <v>25</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="L7" t="s">
+        <v>461</v>
+      </c>
+      <c r="M7" t="s">
+        <v>127</v>
+      </c>
+      <c r="N7" t="s">
+        <v>419</v>
+      </c>
+      <c r="O7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P7" t="s">
+        <v>648</v>
+      </c>
+      <c r="R7" t="s">
+        <v>509</v>
+      </c>
+      <c r="S7" t="s">
         <v>493</v>
       </c>
-      <c r="I7" t="s">
-        <v>90</v>
-      </c>
-      <c r="J7" s="4">
-        <v>25</v>
-      </c>
-      <c r="K7" s="6">
-        <v>36263</v>
-      </c>
-      <c r="L7" t="s">
-        <v>446</v>
-      </c>
-      <c r="M7" t="s">
-        <v>122</v>
-      </c>
-      <c r="N7" t="s">
-        <v>403</v>
-      </c>
-      <c r="O7" t="s">
-        <v>96</v>
-      </c>
-      <c r="P7" t="s">
-        <v>430</v>
-      </c>
-      <c r="R7" t="s">
-        <v>494</v>
-      </c>
-      <c r="S7" t="s">
-        <v>478</v>
-      </c>
       <c r="T7" t="s">
-        <v>432</v>
+        <v>447</v>
       </c>
       <c r="U7">
         <v>4305</v>
       </c>
       <c r="V7" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="W7" t="s">
-        <v>130</v>
-      </c>
-      <c r="Y7" s="8" t="s">
-        <v>495</v>
-      </c>
-      <c r="Z7" s="12" t="s">
-        <v>496</v>
+        <v>135</v>
+      </c>
+      <c r="Y7" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="Z7" s="7" t="s">
+        <v>511</v>
       </c>
       <c r="AB7" t="s">
-        <v>497</v>
+        <v>512</v>
       </c>
       <c r="AC7" t="s">
-        <v>392</v>
+        <v>408</v>
       </c>
       <c r="AD7" t="s">
-        <v>467</v>
-      </c>
-      <c r="AE7" s="12" t="s">
-        <v>498</v>
+        <v>482</v>
+      </c>
+      <c r="AE7" s="7" t="s">
+        <v>513</v>
       </c>
       <c r="AG7" t="s">
-        <v>499</v>
+        <v>514</v>
       </c>
       <c r="AH7" t="s">
-        <v>500</v>
+        <v>515</v>
       </c>
       <c r="AI7" t="s">
-        <v>501</v>
-      </c>
-      <c r="AJ7" s="12" t="s">
-        <v>502</v>
+        <v>516</v>
+      </c>
+      <c r="AJ7" s="7" t="s">
+        <v>517</v>
       </c>
       <c r="AR7" t="s">
-        <v>503</v>
+        <v>518</v>
       </c>
       <c r="AS7" t="s">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="AT7">
         <v>2018</v>
       </c>
       <c r="AV7" t="s">
-        <v>420</v>
+        <v>436</v>
       </c>
       <c r="AW7" t="s">
-        <v>421</v>
+        <v>437</v>
       </c>
       <c r="AX7" t="s">
-        <v>504</v>
+        <v>519</v>
       </c>
       <c r="AZ7" t="s">
-        <v>422</v>
+        <v>438</v>
       </c>
       <c r="BA7" t="s">
-        <v>423</v>
+        <v>439</v>
       </c>
       <c r="BB7" t="s">
-        <v>424</v>
+        <v>440</v>
       </c>
       <c r="BC7">
         <v>2017</v>
       </c>
     </row>
-    <row r="8" spans="1:55">
+    <row r="8" spans="1:59">
       <c r="A8" t="s">
-        <v>505</v>
+        <v>520</v>
       </c>
       <c r="B8" t="s">
-        <v>399</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>506</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>508</v>
+        <v>415</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="E8" t="s">
+        <v>522</v>
+      </c>
+      <c r="F8" t="s">
+        <v>523</v>
       </c>
       <c r="G8" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="I8" t="s">
-        <v>118</v>
-      </c>
-      <c r="J8" s="4">
+        <v>123</v>
+      </c>
+      <c r="J8" s="3">
         <v>21</v>
       </c>
-      <c r="K8" s="6">
-        <v>37703</v>
+      <c r="K8" s="10" t="s">
+        <v>643</v>
       </c>
       <c r="L8" t="s">
-        <v>509</v>
+        <v>524</v>
       </c>
       <c r="M8" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="N8" t="s">
-        <v>403</v>
+        <v>419</v>
       </c>
       <c r="O8" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="P8" t="s">
-        <v>430</v>
+        <v>648</v>
       </c>
       <c r="R8" t="s">
-        <v>510</v>
+        <v>525</v>
       </c>
       <c r="S8" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="T8" t="s">
-        <v>432</v>
+        <v>447</v>
       </c>
       <c r="U8">
         <v>4306</v>
       </c>
       <c r="V8" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="W8" t="s">
-        <v>130</v>
-      </c>
-      <c r="Y8" s="8" t="s">
-        <v>511</v>
-      </c>
-      <c r="Z8" s="12" t="s">
-        <v>512</v>
+        <v>135</v>
+      </c>
+      <c r="Y8" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="Z8" s="7" t="s">
+        <v>527</v>
       </c>
       <c r="AB8" t="s">
-        <v>513</v>
+        <v>528</v>
       </c>
       <c r="AC8" t="s">
-        <v>514</v>
+        <v>529</v>
       </c>
       <c r="AD8" t="s">
-        <v>515</v>
-      </c>
-      <c r="AE8" s="12" t="s">
-        <v>516</v>
+        <v>530</v>
+      </c>
+      <c r="AE8" s="7" t="s">
+        <v>531</v>
       </c>
       <c r="AG8" t="s">
-        <v>517</v>
+        <v>532</v>
       </c>
       <c r="AH8" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="AI8" t="s">
-        <v>359</v>
-      </c>
-      <c r="AJ8" s="12" t="s">
-        <v>518</v>
+        <v>369</v>
+      </c>
+      <c r="AJ8" s="7" t="s">
+        <v>533</v>
       </c>
       <c r="AR8" t="s">
-        <v>519</v>
+        <v>534</v>
       </c>
       <c r="AS8" t="s">
-        <v>519</v>
+        <v>534</v>
       </c>
       <c r="AT8">
         <v>2018</v>
       </c>
       <c r="AV8" t="s">
-        <v>420</v>
+        <v>436</v>
       </c>
       <c r="AW8" t="s">
-        <v>421</v>
+        <v>437</v>
       </c>
       <c r="AX8" t="s">
-        <v>520</v>
+        <v>535</v>
       </c>
       <c r="AZ8" t="s">
-        <v>422</v>
+        <v>438</v>
       </c>
       <c r="BA8" t="s">
-        <v>423</v>
+        <v>439</v>
       </c>
       <c r="BB8" t="s">
-        <v>424</v>
+        <v>440</v>
       </c>
       <c r="BC8">
         <v>2018</v>
       </c>
     </row>
-    <row r="9" ht="15.75" spans="1:55">
+    <row r="9" spans="1:59" ht="15.75" customHeight="1">
       <c r="A9" t="s">
-        <v>521</v>
+        <v>536</v>
       </c>
       <c r="B9" t="s">
-        <v>399</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>522</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>524</v>
+        <v>415</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="E9" t="s">
+        <v>538</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>539</v>
       </c>
       <c r="G9" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="I9" t="s">
-        <v>90</v>
-      </c>
-      <c r="J9" s="4">
+        <v>95</v>
+      </c>
+      <c r="J9" s="3">
         <v>19</v>
       </c>
-      <c r="K9" s="6">
-        <v>38515</v>
+      <c r="K9" s="10" t="s">
+        <v>644</v>
       </c>
       <c r="L9" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
       <c r="M9" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="N9" t="s">
-        <v>403</v>
+        <v>419</v>
       </c>
       <c r="O9" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="P9" t="s">
-        <v>430</v>
+        <v>648</v>
       </c>
       <c r="R9" t="s">
-        <v>526</v>
+        <v>541</v>
       </c>
       <c r="S9" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="T9" t="s">
-        <v>432</v>
+        <v>447</v>
       </c>
       <c r="U9">
         <v>4307</v>
       </c>
       <c r="V9" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="W9" t="s">
-        <v>130</v>
-      </c>
-      <c r="Y9" s="8" t="s">
-        <v>527</v>
-      </c>
-      <c r="Z9" s="12" t="s">
-        <v>528</v>
+        <v>135</v>
+      </c>
+      <c r="Y9" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="Z9" s="7" t="s">
+        <v>543</v>
       </c>
       <c r="AB9" t="s">
-        <v>529</v>
+        <v>544</v>
       </c>
       <c r="AC9" t="s">
-        <v>530</v>
+        <v>545</v>
       </c>
       <c r="AD9" t="s">
-        <v>467</v>
-      </c>
-      <c r="AE9" s="12" t="s">
-        <v>531</v>
+        <v>482</v>
+      </c>
+      <c r="AE9" s="7" t="s">
+        <v>546</v>
       </c>
       <c r="AG9" t="s">
-        <v>532</v>
+        <v>547</v>
       </c>
       <c r="AH9" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="AI9" t="s">
-        <v>533</v>
-      </c>
-      <c r="AJ9" s="12" t="s">
-        <v>534</v>
+        <v>548</v>
+      </c>
+      <c r="AJ9" s="7" t="s">
+        <v>549</v>
       </c>
       <c r="AR9" t="s">
-        <v>535</v>
+        <v>550</v>
       </c>
       <c r="AS9" t="s">
-        <v>535</v>
+        <v>550</v>
       </c>
       <c r="AT9">
         <v>2015</v>
       </c>
       <c r="AV9" t="s">
-        <v>420</v>
+        <v>436</v>
       </c>
       <c r="AW9" t="s">
-        <v>421</v>
+        <v>437</v>
       </c>
       <c r="AX9" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="AZ9" t="s">
-        <v>422</v>
+        <v>438</v>
       </c>
       <c r="BA9" t="s">
-        <v>423</v>
+        <v>439</v>
       </c>
       <c r="BB9" t="s">
-        <v>424</v>
+        <v>440</v>
       </c>
       <c r="BC9">
         <v>2019</v>
       </c>
     </row>
-    <row r="10" spans="1:55">
+    <row r="10" spans="1:59">
       <c r="A10" t="s">
-        <v>536</v>
+        <v>551</v>
       </c>
       <c r="B10" t="s">
-        <v>399</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>537</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>539</v>
+        <v>415</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="E10" t="s">
+        <v>553</v>
+      </c>
+      <c r="F10" t="s">
+        <v>554</v>
       </c>
       <c r="G10" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="I10" t="s">
-        <v>118</v>
-      </c>
-      <c r="J10" s="4">
+        <v>123</v>
+      </c>
+      <c r="J10" s="3">
         <v>20</v>
       </c>
-      <c r="K10" s="6">
-        <v>38155</v>
+      <c r="K10" s="10" t="s">
+        <v>645</v>
       </c>
       <c r="L10" t="s">
-        <v>461</v>
+        <v>476</v>
       </c>
       <c r="M10" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="N10" t="s">
-        <v>403</v>
+        <v>419</v>
       </c>
       <c r="O10" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="P10" t="s">
-        <v>430</v>
+        <v>648</v>
       </c>
       <c r="R10" t="s">
-        <v>540</v>
+        <v>555</v>
       </c>
       <c r="S10" t="s">
-        <v>541</v>
+        <v>556</v>
       </c>
       <c r="T10" t="s">
-        <v>432</v>
+        <v>447</v>
       </c>
       <c r="U10">
         <v>4308</v>
       </c>
       <c r="V10" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="W10" t="s">
-        <v>130</v>
-      </c>
-      <c r="Y10" s="8" t="s">
-        <v>542</v>
-      </c>
-      <c r="Z10" s="12" t="s">
-        <v>543</v>
+        <v>135</v>
+      </c>
+      <c r="Y10" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="Z10" s="7" t="s">
+        <v>558</v>
       </c>
       <c r="AB10" t="s">
-        <v>544</v>
+        <v>559</v>
       </c>
       <c r="AC10" t="s">
-        <v>545</v>
+        <v>560</v>
       </c>
       <c r="AD10" t="s">
-        <v>338</v>
-      </c>
-      <c r="AE10" s="12" t="s">
-        <v>546</v>
+        <v>347</v>
+      </c>
+      <c r="AE10" s="7" t="s">
+        <v>561</v>
       </c>
       <c r="AG10" t="s">
-        <v>547</v>
+        <v>562</v>
       </c>
       <c r="AH10" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="AI10" t="s">
-        <v>501</v>
-      </c>
-      <c r="AJ10" s="12" t="s">
-        <v>548</v>
+        <v>516</v>
+      </c>
+      <c r="AJ10" s="7" t="s">
+        <v>563</v>
       </c>
       <c r="AR10" t="s">
-        <v>535</v>
+        <v>550</v>
       </c>
       <c r="AS10" t="s">
-        <v>535</v>
+        <v>550</v>
       </c>
       <c r="AT10">
         <v>2016</v>
       </c>
       <c r="AV10" t="s">
-        <v>420</v>
+        <v>436</v>
       </c>
       <c r="AW10" t="s">
-        <v>421</v>
+        <v>437</v>
       </c>
       <c r="AX10" t="s">
-        <v>549</v>
+        <v>564</v>
       </c>
       <c r="AZ10" t="s">
-        <v>422</v>
+        <v>438</v>
       </c>
       <c r="BA10" t="s">
-        <v>423</v>
+        <v>439</v>
       </c>
       <c r="BB10" t="s">
-        <v>424</v>
+        <v>440</v>
       </c>
       <c r="BC10">
         <v>2020</v>
       </c>
     </row>
-    <row r="11" spans="1:55">
+    <row r="11" spans="1:59">
       <c r="A11" t="s">
-        <v>550</v>
+        <v>565</v>
       </c>
       <c r="B11" t="s">
-        <v>399</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>551</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>552</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>553</v>
+        <v>415</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="E11" t="s">
+        <v>567</v>
+      </c>
+      <c r="F11" t="s">
+        <v>568</v>
       </c>
       <c r="G11" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
       <c r="I11" t="s">
-        <v>90</v>
-      </c>
-      <c r="J11" s="4">
+        <v>95</v>
+      </c>
+      <c r="J11" s="3">
         <v>20</v>
       </c>
-      <c r="K11" s="6">
-        <v>38273</v>
+      <c r="K11" s="10" t="s">
+        <v>646</v>
       </c>
       <c r="L11" t="s">
-        <v>509</v>
+        <v>524</v>
       </c>
       <c r="M11" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="N11" t="s">
-        <v>403</v>
+        <v>419</v>
       </c>
       <c r="O11" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="P11" t="s">
-        <v>430</v>
+        <v>648</v>
       </c>
       <c r="R11" t="s">
-        <v>554</v>
+        <v>569</v>
       </c>
       <c r="S11" t="s">
-        <v>541</v>
+        <v>556</v>
       </c>
       <c r="T11" t="s">
-        <v>432</v>
+        <v>447</v>
       </c>
       <c r="U11">
         <v>4309</v>
       </c>
       <c r="V11" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="W11" t="s">
-        <v>130</v>
-      </c>
-      <c r="Y11" s="8" t="s">
-        <v>555</v>
-      </c>
-      <c r="Z11" s="12" t="s">
-        <v>556</v>
+        <v>135</v>
+      </c>
+      <c r="Y11" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z11" s="7" t="s">
+        <v>571</v>
       </c>
       <c r="AB11" t="s">
-        <v>557</v>
+        <v>572</v>
       </c>
       <c r="AC11" t="s">
-        <v>558</v>
+        <v>573</v>
       </c>
       <c r="AD11" t="s">
-        <v>437</v>
-      </c>
-      <c r="AE11" s="12" t="s">
-        <v>559</v>
+        <v>452</v>
+      </c>
+      <c r="AE11" s="7" t="s">
+        <v>574</v>
       </c>
       <c r="AG11" t="s">
-        <v>560</v>
+        <v>575</v>
       </c>
       <c r="AH11" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="AI11" t="s">
-        <v>561</v>
+        <v>576</v>
       </c>
       <c r="AJ11" t="s">
-        <v>562</v>
+        <v>577</v>
       </c>
       <c r="AR11" t="s">
-        <v>535</v>
+        <v>550</v>
       </c>
       <c r="AS11" t="s">
-        <v>535</v>
+        <v>550</v>
       </c>
       <c r="AT11">
         <v>2017</v>
       </c>
       <c r="AV11" t="s">
-        <v>420</v>
+        <v>436</v>
       </c>
       <c r="AW11" t="s">
-        <v>421</v>
+        <v>437</v>
       </c>
       <c r="AX11" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="AZ11" t="s">
-        <v>422</v>
+        <v>438</v>
       </c>
       <c r="BA11" t="s">
-        <v>423</v>
+        <v>439</v>
       </c>
       <c r="BB11" t="s">
-        <v>424</v>
+        <v>440</v>
       </c>
       <c r="BC11">
         <v>2021</v>
       </c>
     </row>
-    <row r="12" spans="1:55">
+    <row r="12" spans="1:59">
       <c r="A12" t="s">
-        <v>563</v>
+        <v>578</v>
       </c>
       <c r="B12" t="s">
-        <v>399</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>564</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>565</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>566</v>
+        <v>415</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="E12" t="s">
+        <v>580</v>
+      </c>
+      <c r="F12" t="s">
+        <v>581</v>
       </c>
       <c r="G12" t="s">
-        <v>567</v>
+        <v>582</v>
       </c>
       <c r="I12" t="s">
-        <v>118</v>
-      </c>
-      <c r="J12" s="4">
+        <v>123</v>
+      </c>
+      <c r="J12" s="3">
         <v>25</v>
       </c>
-      <c r="K12" s="6">
-        <v>36164</v>
+      <c r="K12" s="10" t="s">
+        <v>647</v>
       </c>
       <c r="L12" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
       <c r="M12" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="N12" t="s">
-        <v>403</v>
+        <v>419</v>
       </c>
       <c r="O12" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="P12" t="s">
-        <v>430</v>
+        <v>648</v>
       </c>
       <c r="R12" t="s">
-        <v>568</v>
+        <v>583</v>
       </c>
       <c r="S12" t="s">
-        <v>569</v>
+        <v>584</v>
       </c>
       <c r="T12" t="s">
-        <v>432</v>
+        <v>447</v>
       </c>
       <c r="U12">
         <v>4310</v>
       </c>
       <c r="V12" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="W12" t="s">
-        <v>130</v>
-      </c>
-      <c r="Y12" s="8" t="s">
-        <v>570</v>
-      </c>
-      <c r="Z12" s="12" t="s">
-        <v>571</v>
+        <v>135</v>
+      </c>
+      <c r="Y12" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="Z12" s="7" t="s">
+        <v>586</v>
       </c>
       <c r="AB12" t="s">
-        <v>572</v>
+        <v>587</v>
       </c>
       <c r="AC12" t="s">
-        <v>573</v>
+        <v>588</v>
       </c>
       <c r="AD12" t="s">
-        <v>437</v>
-      </c>
-      <c r="AE12" s="12" t="s">
-        <v>574</v>
+        <v>452</v>
+      </c>
+      <c r="AE12" s="7" t="s">
+        <v>589</v>
       </c>
       <c r="AG12" t="s">
-        <v>575</v>
+        <v>590</v>
       </c>
       <c r="AH12" t="s">
-        <v>478</v>
+        <v>493</v>
       </c>
       <c r="AI12" t="s">
-        <v>576</v>
-      </c>
-      <c r="AJ12" s="12" t="s">
-        <v>577</v>
+        <v>591</v>
+      </c>
+      <c r="AJ12" s="7" t="s">
+        <v>592</v>
       </c>
       <c r="AR12" t="s">
-        <v>478</v>
+        <v>493</v>
       </c>
       <c r="AS12" t="s">
-        <v>478</v>
+        <v>493</v>
       </c>
       <c r="AT12">
         <v>2016</v>
       </c>
       <c r="AV12" t="s">
-        <v>420</v>
+        <v>436</v>
       </c>
       <c r="AW12" t="s">
-        <v>421</v>
+        <v>437</v>
       </c>
       <c r="AX12" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="AZ12" t="s">
-        <v>422</v>
+        <v>438</v>
       </c>
       <c r="BA12" t="s">
-        <v>423</v>
+        <v>439</v>
       </c>
       <c r="BB12" t="s">
-        <v>424</v>
+        <v>440</v>
       </c>
       <c r="BC12">
         <v>2022</v>
       </c>
     </row>
-    <row r="13" spans="1:55">
+    <row r="13" spans="1:59">
       <c r="A13" t="s">
-        <v>578</v>
+        <v>593</v>
       </c>
       <c r="B13" t="s">
-        <v>399</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>579</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>580</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>581</v>
+        <v>415</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="E13" t="s">
+        <v>595</v>
+      </c>
+      <c r="F13" t="s">
+        <v>596</v>
       </c>
       <c r="G13" t="s">
-        <v>582</v>
+        <v>597</v>
       </c>
       <c r="I13" t="s">
-        <v>118</v>
-      </c>
-      <c r="J13" s="4">
+        <v>123</v>
+      </c>
+      <c r="J13" s="3">
         <v>27</v>
       </c>
-      <c r="K13" s="7" t="s">
-        <v>583</v>
+      <c r="K13" s="10" t="s">
+        <v>636</v>
       </c>
       <c r="L13" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="M13" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="N13" t="s">
-        <v>403</v>
+        <v>419</v>
       </c>
       <c r="O13" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>430</v>
+        <v>648</v>
       </c>
       <c r="R13" t="s">
+        <v>598</v>
+      </c>
+      <c r="S13" t="s">
         <v>584</v>
       </c>
-      <c r="S13" t="s">
-        <v>569</v>
-      </c>
       <c r="T13" t="s">
-        <v>432</v>
+        <v>447</v>
       </c>
       <c r="U13">
         <v>4311</v>
       </c>
       <c r="V13" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="W13" t="s">
-        <v>130</v>
-      </c>
-      <c r="Y13" s="8" t="s">
-        <v>585</v>
-      </c>
-      <c r="Z13" s="12" t="s">
-        <v>586</v>
+        <v>135</v>
+      </c>
+      <c r="Y13" s="4" t="s">
+        <v>599</v>
+      </c>
+      <c r="Z13" s="7" t="s">
+        <v>600</v>
       </c>
       <c r="AB13" t="s">
-        <v>587</v>
+        <v>601</v>
       </c>
       <c r="AC13" t="s">
-        <v>588</v>
+        <v>602</v>
       </c>
       <c r="AD13" t="s">
-        <v>327</v>
-      </c>
-      <c r="AE13" s="12" t="s">
-        <v>589</v>
+        <v>334</v>
+      </c>
+      <c r="AE13" s="7" t="s">
+        <v>603</v>
       </c>
       <c r="AG13" t="s">
-        <v>590</v>
+        <v>604</v>
       </c>
       <c r="AH13" t="s">
-        <v>478</v>
+        <v>493</v>
       </c>
       <c r="AI13" t="s">
-        <v>338</v>
-      </c>
-      <c r="AJ13" s="12" t="s">
-        <v>591</v>
+        <v>347</v>
+      </c>
+      <c r="AJ13" s="7" t="s">
+        <v>605</v>
       </c>
       <c r="AR13" t="s">
-        <v>487</v>
+        <v>502</v>
       </c>
       <c r="AS13" t="s">
-        <v>487</v>
+        <v>502</v>
       </c>
       <c r="AT13">
         <v>2018</v>
       </c>
       <c r="AV13" t="s">
-        <v>420</v>
+        <v>436</v>
       </c>
       <c r="AW13" t="s">
-        <v>421</v>
+        <v>437</v>
       </c>
       <c r="AX13" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="AZ13" t="s">
-        <v>422</v>
+        <v>438</v>
       </c>
       <c r="BA13" t="s">
-        <v>423</v>
+        <v>439</v>
       </c>
       <c r="BB13" t="s">
-        <v>424</v>
+        <v>440</v>
       </c>
       <c r="BC13">
         <v>2023</v>
       </c>
     </row>
-    <row r="14" spans="44:55">
+    <row r="14" spans="1:59">
       <c r="AR14" t="s">
-        <v>378</v>
+        <v>392</v>
       </c>
       <c r="AS14" t="s">
-        <v>378</v>
+        <v>392</v>
       </c>
       <c r="AT14">
         <v>2018</v>
       </c>
       <c r="AV14" t="s">
-        <v>420</v>
+        <v>436</v>
       </c>
       <c r="AW14" t="s">
-        <v>421</v>
+        <v>437</v>
       </c>
       <c r="AX14" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="AZ14" t="s">
-        <v>422</v>
+        <v>438</v>
       </c>
       <c r="BA14" t="s">
-        <v>423</v>
+        <v>439</v>
       </c>
       <c r="BB14" t="s">
-        <v>424</v>
+        <v>440</v>
       </c>
       <c r="BC14">
         <v>2024</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="Y4" r:id="rId1" display="chloe@gmail.com" tooltip="mailto:chloe@gmail.com"/>
-    <hyperlink ref="Y5" r:id="rId2" display="dan@gmail.com" tooltip="mailto:dan@gmail.com"/>
-    <hyperlink ref="Y6" r:id="rId3" display="alea@gmail.com" tooltip="mailto:alea@gmail.com"/>
-    <hyperlink ref="Y7" r:id="rId4" display="fin@gmail.com" tooltip="mailto:fin@gmail.com"/>
-    <hyperlink ref="Y8" r:id="rId5" display="grace@gmail.com" tooltip="mailto:grace@gmail.com"/>
-    <hyperlink ref="Y9" r:id="rId6" display="henry@gmail.com" tooltip="mailto:henry@gmail.com"/>
-    <hyperlink ref="Y10" r:id="rId7" display="isablle@gmail.com" tooltip="mailto:isablle@gmail.com"/>
-    <hyperlink ref="Y11" r:id="rId8" display="leo@gmail.com" tooltip="mailto:leo@gmail.com"/>
-    <hyperlink ref="Y12" r:id="rId9" display="scarl@gmail.com" tooltip="mailto:scarl@gmail.com"/>
-    <hyperlink ref="Y13" r:id="rId10" display="ursu@gmail.com" tooltip="mailto:ursu@gmail.com"/>
-    <hyperlink ref="Y3" r:id="rId11" display="Ame@gmail.com"/>
+    <hyperlink ref="Y3" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="Y4" r:id="rId2" tooltip="mailto:chloe@gmail.com" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="Y5" r:id="rId3" tooltip="mailto:dan@gmail.com" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="Y6" r:id="rId4" tooltip="mailto:alea@gmail.com" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
+    <hyperlink ref="Y7" r:id="rId5" tooltip="mailto:fin@gmail.com" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
+    <hyperlink ref="Y8" r:id="rId6" tooltip="mailto:grace@gmail.com" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
+    <hyperlink ref="Y9" r:id="rId7" tooltip="mailto:henry@gmail.com" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
+    <hyperlink ref="Y10" r:id="rId8" tooltip="mailto:isablle@gmail.com" xr:uid="{00000000-0004-0000-0300-000007000000}"/>
+    <hyperlink ref="Y11" r:id="rId9" tooltip="mailto:leo@gmail.com" xr:uid="{00000000-0004-0000-0300-000008000000}"/>
+    <hyperlink ref="Y12" r:id="rId10" tooltip="mailto:scarl@gmail.com" xr:uid="{00000000-0004-0000-0300-000009000000}"/>
+    <hyperlink ref="Y13" r:id="rId11" tooltip="mailto:ursu@gmail.com" xr:uid="{00000000-0004-0000-0300-00000A000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>